--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BEbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A9336-9F81-43F6-A437-2D2BD5C64067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D0770-A082-45A2-9E95-45FF62FF70B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1635" windowWidth="24090" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD EMPN" sheetId="5" r:id="rId2"/>
     <sheet name="Filtered OECD Data" sheetId="6" r:id="rId3"/>
     <sheet name="OECD Chem Pharma Split" sheetId="7" r:id="rId4"/>
-    <sheet name="BEbIC" sheetId="2" r:id="rId5"/>
+    <sheet name="BLS BEA Mining" sheetId="9" r:id="rId5"/>
+    <sheet name="BEbIC" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -645,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="268">
   <si>
     <t>Source:</t>
   </si>
@@ -1332,6 +1333,123 @@
   </si>
   <si>
     <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>for employment in oil and gas extraction.  We subtract from the OECD's total value, because</t>
+  </si>
+  <si>
+    <t>BLS's total includes mining for non-energy products, which OECD breaks out.</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>We divide up coal mining (ISIC 05) from oil and gas extraction (ISIC 06) by using BLS figures</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>NAICS Code</t>
+  </si>
+  <si>
+    <t>ISIC Code</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>Data for Year 2015</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/table1a_201512.pdf</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Current Employment Statistics (Dec 2015 release)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/home.htm</t>
+  </si>
+  <si>
+    <t>Employment (EEs)</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>Value Added</t>
+  </si>
+  <si>
+    <t>All Mining other than Oil and Gas</t>
+  </si>
+  <si>
+    <t>Compensation of employees</t>
+  </si>
+  <si>
+    <t>Taxes on production and imports less subsidies</t>
+  </si>
+  <si>
+    <t>Gross operating surplus</t>
+  </si>
+  <si>
+    <t>Gross Output</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/UGdpxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Industry File Download</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/iTable/iTable.cfm?isuri=1&amp;reqid=151&amp;step=1</t>
+  </si>
+  <si>
+    <t>Underlying Detail: Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/CompByInd/ComponentsOfVa.xlsx</t>
+  </si>
+  <si>
+    <t>Components of Value Added</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/GDPxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Coal Mining vs. Oil &amp; Gas Extraction</t>
+  </si>
+  <si>
+    <t>Table B-1a</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,8 +1559,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,6 +1613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,12 +1783,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1738,6 +1870,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1826,10 +1978,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{0C79E43D-D088-43AF-AD66-AC2EF134DE21}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2107,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2184,43 +2337,125 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{A055FF8F-9626-4BBA-BE7E-E5CE0C40568B}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{3B17179A-AF91-4A82-B973-8C6C0192EAE3}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{2E36F070-C0C9-4CCB-AC9B-3B90DC990AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2228,7 +2463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CBC0E5-825F-4023-A65B-FD98CE5167C8}">
   <dimension ref="A1:BE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2258,548 +2495,548 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="51"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="63"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="42"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="54"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="42"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="54"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="42"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="54"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="33"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="45"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="34" t="s">
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="34" t="s">
+      <c r="AF8" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AG8" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="34" t="s">
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="AT8" s="32" t="s">
+      <c r="AT8" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="34" t="s">
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="46" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="34" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="48"/>
+      <c r="J9" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34" t="s">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="34" t="s">
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AB9" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="34" t="s">
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="34" t="s">
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AI9" s="32" t="s">
+      <c r="AI9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="34" t="s">
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AM9" s="32" t="s">
+      <c r="AM9" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="34" t="s">
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AQ9" s="34" t="s">
+      <c r="AQ9" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AR9" s="34" t="s">
+      <c r="AR9" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="34" t="s">
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AU9" s="32" t="s">
+      <c r="AU9" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="34" t="s">
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AY9" s="32" t="s">
+      <c r="AY9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
     </row>
     <row r="10" spans="1:57" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="35"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="8" t="s">
         <v>130</v>
       </c>
@@ -2812,33 +3049,33 @@
       <c r="S10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="35"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="8" t="s">
         <v>126</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="35"/>
+      <c r="W10" s="47"/>
       <c r="X10" s="8" t="s">
         <v>124</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="8" t="s">
         <v>122</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
       <c r="AI10" s="8" t="s">
         <v>120</v>
       </c>
@@ -2848,7 +3085,7 @@
       <c r="AK10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="35"/>
+      <c r="AL10" s="47"/>
       <c r="AM10" s="8" t="s">
         <v>117</v>
       </c>
@@ -2858,11 +3095,11 @@
       <c r="AO10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
       <c r="AU10" s="8" t="s">
         <v>114</v>
       </c>
@@ -2872,18 +3109,18 @@
       <c r="AW10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="35"/>
+      <c r="AX10" s="47"/>
       <c r="AY10" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AZ10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BA10" s="35"/>
-      <c r="BB10" s="35"/>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
     </row>
     <row r="11" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -23325,60 +23562,60 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="69"/>
+      <c r="G4" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="69"/>
+      <c r="K4" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="57"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="19" t="s">
         <v>180</v>
       </c>
@@ -24639,137 +24876,364 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C24BC-2F92-416E-AC1C-1CF95AF76421}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>64800</v>
+      </c>
+      <c r="C6">
+        <v>185400</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="34">
+        <v>40135000000</v>
+      </c>
+      <c r="C11" s="34">
+        <v>268953000000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37">
+        <v>268953000000</v>
+      </c>
+      <c r="D12" s="37">
+        <v>106189000000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="42">
+        <f>$D13*($B$11/$D$12)</f>
+        <v>18895640697.24736</v>
+      </c>
+      <c r="C13" s="37">
+        <v>158231000000</v>
+      </c>
+      <c r="D13" s="37">
+        <v>49994000000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="42">
+        <f t="shared" ref="B14:B16" si="0">$D14*($B$11/$D$12)</f>
+        <v>6824034739.9448147</v>
+      </c>
+      <c r="C14" s="37">
+        <v>38814000000</v>
+      </c>
+      <c r="D14" s="37">
+        <v>18055000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="42">
+        <f t="shared" si="0"/>
+        <v>1877696183.220484</v>
+      </c>
+      <c r="C15" s="37">
+        <v>32690000000</v>
+      </c>
+      <c r="D15" s="37">
+        <v>4968000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="42">
+        <f t="shared" si="0"/>
+        <v>10193909774.08206</v>
+      </c>
+      <c r="C16" s="37">
+        <v>86727000000</v>
+      </c>
+      <c r="D16" s="37">
+        <v>26971000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{350EB6D2-4E8A-4EFE-B402-EAABE0D875B3}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{185AD9A7-61B3-4DBB-B2E3-B1EFFA210EFB}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{DEE603B4-C494-4347-8CB7-5628B8CB2FE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:C5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="38" width="10.140625" customWidth="1"/>
+    <col min="2" max="39" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Filtered OECD Data'!A38</f>
         <v>USA: United States</v>
@@ -24778,147 +25242,151 @@
         <f>'Filtered OECD Data'!B38*1000</f>
         <v>2253000</v>
       </c>
-      <c r="C2">
-        <f>'Filtered OECD Data'!C38*1000</f>
-        <v>262600</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="32">
+        <f>'Filtered OECD Data'!C38*1000*('BLS BEA Mining'!B6/SUM('BLS BEA Mining'!$B6:$C6))</f>
+        <v>68011.510791366905</v>
+      </c>
+      <c r="D2" s="32">
+        <f>'Filtered OECD Data'!C38*1000*('BLS BEA Mining'!C6/SUM('BLS BEA Mining'!$B6:$C6))</f>
+        <v>194588.48920863308</v>
+      </c>
+      <c r="E2">
         <f>'Filtered OECD Data'!D38*1000</f>
         <v>135400</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>'Filtered OECD Data'!E38*1000</f>
         <v>373000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>'Filtered OECD Data'!F38*1000</f>
         <v>1783000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>'Filtered OECD Data'!G38*1000</f>
         <v>442000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>'Filtered OECD Data'!H38*1000</f>
         <v>399000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>'Filtered OECD Data'!I38*1000</f>
         <v>842000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>'Filtered OECD Data'!J38*1000</f>
         <v>111000</v>
       </c>
-      <c r="K2" s="30">
+      <c r="L2" s="30">
         <f>'Filtered OECD Data'!K38*1000*('OECD Chem Pharma Split'!M$31/SUM('OECD Chem Pharma Split'!$M$31:$N$31))</f>
         <v>534000</v>
       </c>
-      <c r="L2" s="30">
+      <c r="M2" s="30">
         <f>'Filtered OECD Data'!K38*1000*('OECD Chem Pharma Split'!N$31/SUM('OECD Chem Pharma Split'!$M$31:$N$31))</f>
         <v>286000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>'Filtered OECD Data'!L38*1000</f>
         <v>690000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>'Filtered OECD Data'!M38*1000</f>
         <v>412000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>'Filtered OECD Data'!N38*1000</f>
         <v>395000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>'Filtered OECD Data'!O38*1000</f>
         <v>1483000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f>'Filtered OECD Data'!P38*1000</f>
         <v>1058000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f>'Filtered OECD Data'!Q38*1000</f>
         <v>382000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f>'Filtered OECD Data'!R38*1000</f>
         <v>1126000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>'Filtered OECD Data'!S38*1000</f>
         <v>922000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>'Filtered OECD Data'!T38*1000</f>
         <v>695000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f>'Filtered OECD Data'!U38*1000</f>
         <v>1355500</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f>'Filtered OECD Data'!V38*1000</f>
         <v>975000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>'Filtered OECD Data'!W38*1000</f>
         <v>8240000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>'Filtered OECD Data'!X38*1000</f>
         <v>23893300</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>'Filtered OECD Data'!Y38*1000</f>
         <v>5988000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>'Filtered OECD Data'!Z38*1000</f>
         <v>13295000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>'Filtered OECD Data'!AA38*1000</f>
         <v>1686900</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>'Filtered OECD Data'!AB38*1000</f>
         <v>823100</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <f>'Filtered OECD Data'!AC38*1000</f>
         <v>2455000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <f>'Filtered OECD Data'!AD38*1000</f>
         <v>6300000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <f>'Filtered OECD Data'!AE38*1000</f>
         <v>1958000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <f>'Filtered OECD Data'!AF38*1000</f>
         <v>19863000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <f>'Filtered OECD Data'!AG38*1000</f>
         <v>13365000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <f>'Filtered OECD Data'!AH38*1000</f>
         <v>14114000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <f>'Filtered OECD Data'!AI38*1000</f>
         <v>19522000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <f>'Filtered OECD Data'!AJ38*1000</f>
         <v>8780200</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <f>'Filtered OECD Data'!AK38*1000</f>
         <v>329100</v>
       </c>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B119DCF-6C39-4F11-A962-6DF4FD484021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E65423-A854-41D3-B566-F8AD3D4687B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33315" yWindow="645" windowWidth="30705" windowHeight="14700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="EU Data for ISIC Splits" sheetId="11" r:id="rId6"/>
     <sheet name="BEbIC" sheetId="2" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1310">
   <si>
     <t>Source:</t>
   </si>
@@ -3740,21 +3743,6 @@
     <t xml:space="preserve">        D94T96: Other service activities</t>
   </si>
   <si>
-    <t>^splitting coal mining vs oil/gas extraction</t>
-  </si>
-  <si>
-    <t>^splitting chemicals vs pharmaceuticals</t>
-  </si>
-  <si>
-    <t>^splitting glass vs cement</t>
-  </si>
-  <si>
-    <t>^splitting iron and steel vs other metals</t>
-  </si>
-  <si>
-    <t>^splitting elec generation vs energy pipelines and gas processing vs water and waste</t>
-  </si>
-  <si>
     <t>^this will be in the oecd data that is already here</t>
   </si>
   <si>
@@ -3981,6 +3969,9 @@
   </si>
   <si>
     <t>Unido MINSTAT</t>
+  </si>
+  <si>
+    <t>&lt;-- using gross output as a proxy for the ratio</t>
   </si>
 </sst>
 </file>
@@ -4151,7 +4142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4252,12 +4243,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4530,7 +4515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4823,26 +4808,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="19" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="18" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="20" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="19" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="21" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="20" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4863,10 +4847,12 @@
     <xf numFmtId="167" fontId="22" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4885,6 +4871,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="OECD TTL"/>
+      <sheetName val="OECD TTL EU"/>
+      <sheetName val="U.S. Data for ISIC Splits"/>
+      <sheetName val="EU Data for ISIC Splits"/>
+      <sheetName val="BObIC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="35">
+          <cell r="M35">
+            <v>604921.50000000012</v>
+          </cell>
+          <cell r="N35">
+            <v>336259.10000000009</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5206,7 +5227,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5312,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -26363,8 +26384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5772A-2990-47B3-99CF-FDF7B4616747}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26388,17 +26409,17 @@
     <col min="26" max="26" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="23" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="23" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>234</v>
       </c>
@@ -26457,7 +26478,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>190</v>
       </c>
@@ -26490,7 +26511,7 @@
       <c r="O4" s="25"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>191</v>
       </c>
@@ -26544,9 +26565,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>196</v>
@@ -26604,7 +26625,7 @@
       </c>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>232</v>
       </c>
@@ -26623,31 +26644,31 @@
         <v>60687659392.693939</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="116">
-        <f>SUM(C51:C57,C62:C69)*10^6</f>
-        <v>515925000000</v>
-      </c>
-      <c r="H7" s="116">
-        <f>SUM(C58:C61)*10^6</f>
-        <v>269601000000</v>
+      <c r="G7">
+        <f>'[1]OECD TTL EU'!M35</f>
+        <v>604921.50000000012</v>
+      </c>
+      <c r="H7">
+        <f>'[1]OECD TTL EU'!N35</f>
+        <v>336259.10000000009</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="130">
-        <f>C42*10^6</f>
-        <v>25886000000</v>
+        <f>J6</f>
+        <v>0.23197874321633313</v>
       </c>
       <c r="K7" s="130">
-        <f>SUM(C41,C43:C44)*10^6</f>
-        <v>20781000000</v>
-      </c>
-      <c r="L7" s="25"/>
+        <f>K6</f>
+        <v>0.76802125678366684</v>
+      </c>
+      <c r="L7" s="131"/>
       <c r="M7" s="130">
-        <f>SUM(C45:C46,C49)*10^6</f>
-        <v>127020000000</v>
-      </c>
-      <c r="N7" s="116">
-        <f>SUM(C47:C48,C50)*10^6</f>
-        <v>38515000000</v>
+        <f>M6</f>
+        <v>0.63432911997975383</v>
+      </c>
+      <c r="N7" s="130">
+        <f>N6</f>
+        <v>0.36567088002024611</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="41">
@@ -26664,7 +26685,7 @@
       </c>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>204</v>
       </c>
@@ -26696,7 +26717,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>201</v>
       </c>
@@ -26708,80 +26729,83 @@
         <v>Value Added</v>
       </c>
       <c r="D9" s="21">
-        <f>$F9*($D$7/$F$8)</f>
-        <v>5423362129.5403433</v>
-      </c>
-      <c r="E9" s="19">
-        <f>H33*10^6</f>
-        <v>158231000000</v>
+        <f>D7/SUM(D7:E7)</f>
+        <v>0.1595329985461644</v>
+      </c>
+      <c r="E9" s="21">
+        <f>E7/SUM(D7:E7)</f>
+        <v>0.84046700145383568</v>
       </c>
       <c r="F9" s="26">
         <f>H34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="47">
-        <f>$I9*(G$7/$I$8)</f>
-        <v>218698327521.9407</v>
-      </c>
-      <c r="H9" s="47">
-        <f>$I9*(H$7/$I$8)</f>
-        <v>114282672478.05928</v>
+      <c r="G9" s="132">
+        <f>G7/SUM(G7:H7)</f>
+        <v>0.64272627378847369</v>
+      </c>
+      <c r="H9" s="132">
+        <f>H7/SUM(G7:H7)</f>
+        <v>0.35727372621152625</v>
       </c>
       <c r="I9" s="26">
         <f>H58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="47">
-        <f>$L9*(J$7/$L$8)</f>
-        <v>11878596400.208197</v>
-      </c>
-      <c r="K9" s="47">
-        <f>$L9*(K$7/$L$8)</f>
-        <v>9536008336.271595</v>
+      <c r="J9" s="132">
+        <f>J7</f>
+        <v>0.23197874321633313</v>
+      </c>
+      <c r="K9" s="132">
+        <f>K7</f>
+        <v>0.76802125678366684</v>
       </c>
       <c r="L9" s="48">
         <f>H41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="47">
-        <f>$O9*(M$7/$O$8)</f>
-        <v>33593628398.073215</v>
-      </c>
-      <c r="N9" s="47">
-        <f>$O9*(N$7/$O$8)</f>
-        <v>10186258839.173279</v>
+      <c r="M9" s="132">
+        <f>M7</f>
+        <v>0.63432911997975383</v>
+      </c>
+      <c r="N9" s="132">
+        <f>N7</f>
+        <v>0.36567088002024611</v>
       </c>
       <c r="O9" s="48">
         <f>H42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="47">
-        <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
-        <v>257286614914.20065</v>
-      </c>
-      <c r="Q9" s="47">
-        <f t="shared" si="0"/>
-        <v>73359705703.787018</v>
-      </c>
-      <c r="R9" s="47">
-        <f>$S9*(R$7/$S$8)</f>
-        <v>96830751304.742126</v>
+      <c r="P9" s="132">
+        <f>P7/SUM(P7:R7)</f>
+        <v>0.60187231506233263</v>
+      </c>
+      <c r="Q9" s="132">
+        <f>Q7/SUM(P7:R7)</f>
+        <v>0.17161085476193078</v>
+      </c>
+      <c r="R9" s="132">
+        <f>R7/SUM(P7:R7)</f>
+        <v>0.22651683017573657</v>
       </c>
       <c r="S9" s="48">
         <f>H36*10^6</f>
         <v>299232000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>202</v>
       </c>
       <c r="C10" s="25" t="str">
-        <f t="shared" ref="C10:C12" si="1">A10</f>
+        <f t="shared" ref="C10:C12" si="0">A10</f>
         <v>Compensation of employees</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" ref="D10:D12" si="2">$F10*($D$7/$F$8)</f>
+        <f t="shared" ref="D10:D12" si="1">$F10*($D$7/$F$8)</f>
         <v>1958611098.308815</v>
       </c>
       <c r="E10" s="19">
@@ -26793,51 +26817,51 @@
         <v>18055000000</v>
       </c>
       <c r="G10" s="47">
-        <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
-        <v>65995493274.57016</v>
+        <f t="shared" ref="G10:H12" si="2">$I10*(G$7/$I$8)</f>
+        <v>77379.643911213643</v>
       </c>
       <c r="H10" s="47">
-        <f t="shared" si="3"/>
-        <v>34486506725.42984</v>
+        <f t="shared" si="2"/>
+        <v>43013.19992743717</v>
       </c>
       <c r="I10" s="26">
         <f>I58*10^6</f>
         <v>100482000000</v>
       </c>
       <c r="J10" s="47">
-        <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
-        <v>5884861062.1400633</v>
+        <f t="shared" ref="J10:K12" si="3">$L10*(J$7/$L$8)</f>
+        <v>5.2737490272656541E-2</v>
       </c>
       <c r="K10" s="47">
-        <f t="shared" si="4"/>
-        <v>4724302624.2885208</v>
+        <f t="shared" si="3"/>
+        <v>0.17460010773939871</v>
       </c>
       <c r="L10" s="48">
         <f>I41*10^6</f>
         <v>27080000000</v>
       </c>
       <c r="M10" s="47">
-        <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
-        <v>17693337795.116112</v>
+        <f t="shared" ref="M10:N12" si="4">$O10*(M$7/$O$8)</f>
+        <v>8.8359308715796878E-2</v>
       </c>
       <c r="N10" s="47">
-        <f t="shared" si="5"/>
-        <v>5364973273.334096</v>
+        <f t="shared" si="4"/>
+        <v>5.0936375389982594E-2</v>
       </c>
       <c r="O10" s="48">
         <f>I42*10^6</f>
         <v>31636000000</v>
       </c>
       <c r="P10" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P9:R12" si="5">$S10*(P$7/$S$8)</f>
         <v>66746355144.368149</v>
       </c>
       <c r="Q10" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19031277518.358929</v>
       </c>
       <c r="R10" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25120233004.105583</v>
       </c>
       <c r="S10" s="48">
@@ -26845,16 +26869,16 @@
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>1184</v>
       </c>
       <c r="C11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Taxes on production and imports, less subsidies</v>
+      </c>
+      <c r="D11" s="21">
         <f t="shared" si="1"/>
-        <v>Taxes on production and imports, less subsidies</v>
-      </c>
-      <c r="D11" s="21">
-        <f t="shared" si="2"/>
         <v>538929932.78306246</v>
       </c>
       <c r="E11" s="19">
@@ -26866,51 +26890,51 @@
         <v>4968000000</v>
       </c>
       <c r="G11" s="47">
-        <f t="shared" si="3"/>
-        <v>10700409789.109463</v>
+        <f t="shared" si="2"/>
+        <v>12546.218811344248</v>
       </c>
       <c r="H11" s="47">
-        <f t="shared" si="3"/>
-        <v>5591590210.8905363</v>
+        <f t="shared" si="2"/>
+        <v>6974.0953923867592</v>
       </c>
       <c r="I11" s="26">
         <f>J58*10^6</f>
         <v>16292000000</v>
       </c>
       <c r="J11" s="47">
-        <f t="shared" si="4"/>
-        <v>314235934.11575079</v>
+        <f t="shared" si="3"/>
+        <v>2.8160417627127532E-3</v>
       </c>
       <c r="K11" s="47">
-        <f t="shared" si="4"/>
-        <v>252265199.21422455</v>
+        <f t="shared" si="3"/>
+        <v>9.3231815284774942E-3</v>
       </c>
       <c r="L11" s="48">
         <f>J41*10^6</f>
         <v>1446000000</v>
       </c>
       <c r="M11" s="47">
-        <f t="shared" si="5"/>
-        <v>1388688764.2329404</v>
+        <f t="shared" si="4"/>
+        <v>6.9350159167190437E-3</v>
       </c>
       <c r="N11" s="47">
-        <f t="shared" si="5"/>
-        <v>421078158.98623598</v>
+        <f t="shared" si="4"/>
+        <v>3.9978195755887838E-3</v>
       </c>
       <c r="O11" s="48">
         <f>J42*10^6</f>
         <v>2483000000</v>
       </c>
       <c r="P11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>50739026683.983986</v>
       </c>
       <c r="Q11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14467134508.629345</v>
       </c>
       <c r="R11" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19095816841.929131</v>
       </c>
       <c r="S11" s="48">
@@ -26918,16 +26942,16 @@
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Gross operating surplus</v>
+      </c>
+      <c r="D12" s="21">
         <f t="shared" si="1"/>
-        <v>Gross operating surplus</v>
-      </c>
-      <c r="D12" s="21">
-        <f t="shared" si="2"/>
         <v>2925821098.4484658</v>
       </c>
       <c r="E12" s="19">
@@ -26939,51 +26963,51 @@
         <v>26971000000</v>
       </c>
       <c r="G12" s="47">
-        <f t="shared" si="3"/>
-        <v>142001767669.05234</v>
+        <f t="shared" si="2"/>
+        <v>166496.91777102224</v>
       </c>
       <c r="H12" s="47">
-        <f t="shared" si="3"/>
-        <v>74204232330.947662</v>
+        <f t="shared" si="2"/>
+        <v>92551.023103754706</v>
       </c>
       <c r="I12" s="26">
         <f>K58*10^6</f>
         <v>216206000000</v>
       </c>
       <c r="J12" s="47">
-        <f t="shared" si="4"/>
-        <v>5679499403.952384</v>
+        <f t="shared" si="3"/>
+        <v>5.0897131029389905E-2</v>
       </c>
       <c r="K12" s="47">
-        <f t="shared" si="4"/>
-        <v>4559440512.7688513</v>
+        <f t="shared" si="3"/>
+        <v>0.16850715715543521</v>
       </c>
       <c r="L12" s="48">
         <f>K41*10^6</f>
         <v>26135000000</v>
       </c>
       <c r="M12" s="47">
-        <f t="shared" si="5"/>
-        <v>14511601838.724167</v>
+        <f t="shared" si="4"/>
+        <v>7.2469938780148624E-2</v>
       </c>
       <c r="N12" s="47">
-        <f t="shared" si="5"/>
-        <v>4400207406.8529463</v>
+        <f t="shared" si="4"/>
+        <v>4.1776651038180498E-2</v>
       </c>
       <c r="O12" s="48">
         <f>K42*10^6</f>
         <v>25947000000</v>
       </c>
       <c r="P12" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>139801233085.84854</v>
       </c>
       <c r="Q12" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>39861293676.798752</v>
       </c>
       <c r="R12" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52614701458.707413</v>
       </c>
       <c r="S12" s="48">
@@ -26991,32 +27015,32 @@
         <v>162593000000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q14" t="s">
         <v>1239</v>
       </c>
-      <c r="G14" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="R14" t="s">
         <v>1240</v>
       </c>
-      <c r="M14" t="s">
-        <v>1242</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>1244</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -27044,7 +27068,7 @@
         <v>244</v>
       </c>
       <c r="M23" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -27052,7 +27076,7 @@
         <v>245</v>
       </c>
       <c r="M24" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -27091,39 +27115,39 @@
         <v>203</v>
       </c>
       <c r="M26" s="111" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N26" s="111" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O26" s="111" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P26" s="111" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q26" s="111" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R26" s="111" t="s">
         <v>1246</v>
       </c>
-      <c r="N26" s="111" t="s">
+      <c r="S26" s="111" t="s">
         <v>1247</v>
       </c>
-      <c r="O26" s="111" t="s">
+      <c r="T26" s="111" t="s">
         <v>1248</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="U26" s="111" t="s">
         <v>1249</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="V26" s="111" t="s">
         <v>1250</v>
       </c>
-      <c r="R26" s="111" t="s">
-        <v>1251</v>
-      </c>
-      <c r="S26" s="111" t="s">
-        <v>1252</v>
-      </c>
-      <c r="T26" s="111" t="s">
-        <v>1253</v>
-      </c>
-      <c r="U26" s="111" t="s">
-        <v>1254</v>
-      </c>
-      <c r="V26" s="111" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Y26" s="117" t="s">
-        <v>1301</v>
-      </c>
-      <c r="Z26" s="118">
+      <c r="Y26" s="116" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Z26" s="117">
         <v>2015</v>
       </c>
     </row>
@@ -27188,8 +27212,8 @@
       <c r="V27" s="113">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="121"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="120"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -27223,7 +27247,7 @@
         <v>6793156</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="N28">
         <v>1306702060.5499315</v>
@@ -27252,10 +27276,10 @@
       <c r="V28">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y28" s="122" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Z28" s="123">
+      <c r="Y28" s="121" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Z28" s="122">
         <v>64615.98526307274</v>
       </c>
     </row>
@@ -27291,7 +27315,7 @@
         <v>129354</v>
       </c>
       <c r="M29" s="112" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="N29" s="113">
         <v>1297267192.8821502</v>
@@ -27320,10 +27344,10 @@
       <c r="V29" s="113">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y29" s="124" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Z29" s="125">
+      <c r="Y29" s="123" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Z29" s="124">
         <v>26221.561705366206</v>
       </c>
     </row>
@@ -27359,7 +27383,7 @@
         <v>119390</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="N30">
         <v>1297267192.8821502</v>
@@ -27388,10 +27412,10 @@
       <c r="V30">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y30" s="126" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Z30" s="127">
+      <c r="Y30" s="125" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Z30" s="126">
         <v>23404.888504693812</v>
       </c>
     </row>
@@ -27427,7 +27451,7 @@
         <v>9964</v>
       </c>
       <c r="M31" s="112" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="N31" s="113">
         <v>9545802.0354693029</v>
@@ -27456,10 +27480,10 @@
       <c r="V31" s="113">
         <v>1330197200.5822122</v>
       </c>
-      <c r="Y31" s="128" t="s">
-        <v>1305</v>
-      </c>
-      <c r="Z31" s="129">
+      <c r="Y31" s="127" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Z31" s="128">
         <v>14989.535053012718</v>
       </c>
     </row>
@@ -27495,7 +27519,7 @@
         <v>129835</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="N32">
         <v>9545802.0354693029</v>
@@ -27619,7 +27643,7 @@
         <v>26971</v>
       </c>
       <c r="M34" s="49" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="N34">
         <v>8266490842.2795811</v>
@@ -27648,10 +27672,10 @@
       <c r="V34">
         <v>90197184581.595901</v>
       </c>
-      <c r="Y34" s="122" t="s">
-        <v>1302</v>
-      </c>
-      <c r="Z34" s="118">
+      <c r="Y34" s="121" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Z34" s="117">
         <v>2015</v>
       </c>
     </row>
@@ -27687,7 +27711,7 @@
         <v>16137</v>
       </c>
       <c r="M35" s="112" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="N35" s="113">
         <v>7130567441.7257786</v>
@@ -27716,8 +27740,8 @@
       <c r="V35" s="113">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="119"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="118"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27751,7 +27775,7 @@
         <v>162593</v>
       </c>
       <c r="M36" s="49" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="N36">
         <v>7130567441.7257786</v>
@@ -27780,10 +27804,10 @@
       <c r="V36">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y36" s="117" t="s">
-        <v>1306</v>
-      </c>
-      <c r="Z36" s="123">
+      <c r="Y36" s="116" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Z36" s="122">
         <v>42130.370628106539</v>
       </c>
     </row>
@@ -27819,7 +27843,7 @@
         <v>227490</v>
       </c>
       <c r="M37" s="112" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="N37" s="113">
         <v>1261631266.7170815</v>
@@ -27848,10 +27872,10 @@
       <c r="V37" s="113">
         <v>45403570467.573082</v>
       </c>
-      <c r="Y37" s="117" t="s">
-        <v>1307</v>
-      </c>
-      <c r="Z37" s="123">
+      <c r="Y37" s="116" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Z37" s="122">
         <v>24286.8397775126</v>
       </c>
     </row>
@@ -27887,7 +27911,7 @@
         <v>1037641</v>
       </c>
       <c r="M38" s="49" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="N38">
         <v>1261631266.7170815</v>
@@ -27949,7 +27973,7 @@
         <v>490800</v>
       </c>
       <c r="M39" s="112" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="N39" s="113">
         <v>469546162.21027291</v>
@@ -27979,10 +28003,10 @@
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="Z39" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -28017,7 +28041,7 @@
         <v>11353</v>
       </c>
       <c r="M40" s="49" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="N40">
         <v>469546162.21027291</v>
@@ -28079,7 +28103,7 @@
         <v>26135</v>
       </c>
       <c r="M41" s="112" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="N41" s="113">
         <v>952797572.37284994</v>
@@ -28141,7 +28165,7 @@
         <v>25947</v>
       </c>
       <c r="M42" s="49" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="N42">
         <v>952797572.37284994</v>
@@ -28203,7 +28227,7 @@
         <v>46896</v>
       </c>
       <c r="M43" s="112" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="N43" s="113">
         <v>228005085.27106535</v>
@@ -28265,7 +28289,7 @@
         <v>54260</v>
       </c>
       <c r="M44" s="49" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="N44">
         <v>228005085.27106535</v>
@@ -28327,7 +28351,7 @@
         <v>121224</v>
       </c>
       <c r="M45" s="112" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="N45" s="113">
         <v>2222486657.5109367</v>
@@ -28389,7 +28413,7 @@
         <v>28080</v>
       </c>
       <c r="M46" s="49" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="N46">
         <v>2222486657.5109367</v>
@@ -28451,7 +28475,7 @@
         <v>72921</v>
       </c>
       <c r="M47" s="112" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="N47" s="113">
         <v>1899948233.971308</v>
@@ -28513,7 +28537,7 @@
         <v>68800</v>
       </c>
       <c r="M48" s="49" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="N48">
         <v>1899948233.971308</v>
@@ -28575,7 +28599,7 @@
         <v>8477</v>
       </c>
       <c r="M49" s="112" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="N49" s="113">
         <v>473257466.17673761</v>
@@ -28637,7 +28661,7 @@
         <v>26708</v>
       </c>
       <c r="M50" s="49" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="N50">
         <v>473257466.17673761</v>
@@ -28696,7 +28720,7 @@
         <v>546841</v>
       </c>
       <c r="M51" s="112" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="N51" s="113">
         <v>1678287009.8913183</v>
@@ -28755,7 +28779,7 @@
         <v>128122</v>
       </c>
       <c r="M52" s="49" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="N52">
         <v>1678287009.8913183</v>
@@ -28814,7 +28838,7 @@
         <v>5348</v>
       </c>
       <c r="M53" s="112" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="N53" s="113">
         <v>2106970962.552319</v>
@@ -28873,7 +28897,7 @@
         <v>1230</v>
       </c>
       <c r="M54" s="49" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="N54">
         <v>2106970962.552319</v>
@@ -28932,7 +28956,7 @@
         <v>27760</v>
       </c>
       <c r="M55" s="112" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="N55" s="113">
         <v>56705031.782545343</v>
@@ -28991,7 +29015,7 @@
         <v>13421</v>
       </c>
       <c r="M56" s="49" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="N56">
         <v>56705031.782545343</v>
@@ -29050,7 +29074,7 @@
         <v>121879</v>
       </c>
       <c r="M57" s="112" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="N57" s="113">
         <v>17429692130.770443</v>
@@ -29109,7 +29133,7 @@
         <v>216206</v>
       </c>
       <c r="M58" s="49" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="N58">
         <v>17429692130.770443</v>
@@ -29227,7 +29251,7 @@
         <v>422674</v>
       </c>
       <c r="M60" s="49" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="N60">
         <v>78504091490.033295</v>
@@ -29345,7 +29369,7 @@
         <v>210828</v>
       </c>
       <c r="M62" s="49" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="N62">
         <v>67476297698.493103</v>
@@ -29463,7 +29487,7 @@
         <v>19867</v>
       </c>
       <c r="M64" s="49" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="N64">
         <v>5059416710.4255381</v>
@@ -29581,7 +29605,7 @@
         <v>52871</v>
       </c>
       <c r="M66" s="49" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="N66">
         <v>5648457179.3464718</v>
@@ -29640,7 +29664,7 @@
         <v>20673</v>
       </c>
       <c r="M67" s="112" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="N67" s="113">
         <v>78504091490.033295</v>
@@ -29699,7 +29723,7 @@
         <v>26712</v>
       </c>
       <c r="M68" s="49" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="N68">
         <v>78504091490.033295</v>
@@ -29808,7 +29832,7 @@
         <v>7898</v>
       </c>
       <c r="M70" s="49" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="N70">
         <v>10890398890.142317</v>
@@ -29908,7 +29932,7 @@
         <v>103343</v>
       </c>
       <c r="M72" s="49" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="N72">
         <v>10890398890.142317</v>
@@ -30008,7 +30032,7 @@
         <v>273993</v>
       </c>
       <c r="M74" s="49" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="N74">
         <v>6782897653.2705154</v>
@@ -30108,7 +30132,7 @@
         <v>2577118</v>
       </c>
       <c r="M76" s="49" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="N76">
         <v>6782897653.2705154</v>
@@ -30208,7 +30232,7 @@
         <v>306900</v>
       </c>
       <c r="M78" s="49" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="N78">
         <v>8687307834.3865585</v>
@@ -30308,7 +30332,7 @@
         <v>263076</v>
       </c>
       <c r="M80" s="49" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="N80">
         <v>3280319673.5430574</v>
@@ -30408,7 +30432,7 @@
         <v>1993228</v>
       </c>
       <c r="M82" s="49" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="N82">
         <v>3590390056.4097924</v>
@@ -30508,7 +30532,7 @@
         <v>152633</v>
       </c>
       <c r="M84" s="49" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="N84">
         <v>1805391977.5152531</v>
@@ -30608,7 +30632,7 @@
         <v>404035</v>
       </c>
       <c r="M86" s="49" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="N86">
         <v>237223363.36203495</v>
@@ -30708,7 +30732,7 @@
         <v>44213</v>
       </c>
       <c r="M88" s="49" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="N88">
         <v>237223363.36203495</v>
@@ -30758,7 +30782,7 @@
         <v>260034</v>
       </c>
       <c r="M89" s="112" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="N89" s="113">
         <v>26646384802.299095</v>
@@ -30808,7 +30832,7 @@
         <v>37122</v>
       </c>
       <c r="M90" s="49" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="N90">
         <v>26646384802.299095</v>
@@ -30858,7 +30882,7 @@
         <v>129933</v>
       </c>
       <c r="M91" s="114" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="N91" s="115">
         <v>361813089644.73499</v>
@@ -31376,9 +31400,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="119" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="119" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="119" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{BE74995F-44C2-4E5A-B618-E8AADFD09FB0}"/>
@@ -31395,10 +31419,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31712,23 +31736,6 @@
       <c r="AQ2">
         <f>'Filtered OECD Data'!AK3*1000</f>
         <v>3376200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BEbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\EPS Models\EU EPS\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E65423-A854-41D3-B566-F8AD3D4687B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA7026-E5C7-40E8-ADD9-F36722A68A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="645" windowWidth="30705" windowHeight="14700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1065" windowWidth="27135" windowHeight="6975" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4679,126 +4679,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4853,6 +4733,126 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5392,548 +5392,548 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="75"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="111"/>
+      <c r="AO3" s="111"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="111"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="111"/>
+      <c r="AT3" s="111"/>
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="111"/>
+      <c r="AW3" s="111"/>
+      <c r="AX3" s="111"/>
+      <c r="AY3" s="111"/>
+      <c r="AZ3" s="111"/>
+      <c r="BA3" s="111"/>
+      <c r="BB3" s="111"/>
+      <c r="BC3" s="111"/>
+      <c r="BD3" s="111"/>
+      <c r="BE3" s="112"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="103"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="78"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="103"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="77"/>
-      <c r="BB6" s="77"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="77"/>
-      <c r="BE6" s="78"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="102"/>
+      <c r="AY6" s="102"/>
+      <c r="AZ6" s="102"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="102"/>
+      <c r="BC6" s="102"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="103"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="90"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="94"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="85" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="85" t="s">
+      <c r="G8" s="98"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="85" t="s">
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="85" t="s">
+      <c r="AF8" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="AG8" s="85" t="s">
+      <c r="AG8" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="88" t="s">
+      <c r="AH8" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="85" t="s">
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="AT8" s="88" t="s">
+      <c r="AT8" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="85" t="s">
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="BB8" s="85" t="s">
+      <c r="BB8" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="BC8" s="85" t="s">
+      <c r="BC8" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="BD8" s="85" t="s">
+      <c r="BD8" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="BE8" s="85" t="s">
+      <c r="BE8" s="95" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="85" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="85" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="85" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="88" t="s">
+      <c r="P9" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="85" t="s">
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="88" t="s">
+      <c r="U9" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="V9" s="90"/>
-      <c r="W9" s="85" t="s">
+      <c r="V9" s="94"/>
+      <c r="W9" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="X9" s="88" t="s">
+      <c r="X9" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="85" t="s">
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="85" t="s">
+      <c r="AA9" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" s="88" t="s">
+      <c r="AB9" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="85" t="s">
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="85" t="s">
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="AI9" s="88" t="s">
+      <c r="AI9" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="85" t="s">
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="AM9" s="88" t="s">
+      <c r="AM9" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="85" t="s">
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="AQ9" s="85" t="s">
+      <c r="AQ9" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="AR9" s="85" t="s">
+      <c r="AR9" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="85" t="s">
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="AU9" s="88" t="s">
+      <c r="AU9" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="85" t="s">
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AY9" s="88" t="s">
+      <c r="AY9" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="86"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
+      <c r="BC9" s="97"/>
+      <c r="BD9" s="97"/>
+      <c r="BE9" s="97"/>
     </row>
     <row r="10" spans="1:57" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="87"/>
+      <c r="O10" s="96"/>
       <c r="P10" s="8" t="s">
         <v>130</v>
       </c>
@@ -5946,33 +5946,33 @@
       <c r="S10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="87"/>
+      <c r="T10" s="96"/>
       <c r="U10" s="8" t="s">
         <v>126</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="87"/>
+      <c r="W10" s="96"/>
       <c r="X10" s="8" t="s">
         <v>124</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
       <c r="AB10" s="8" t="s">
         <v>122</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
       <c r="AI10" s="8" t="s">
         <v>120</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="AK10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="87"/>
+      <c r="AL10" s="96"/>
       <c r="AM10" s="8" t="s">
         <v>117</v>
       </c>
@@ -5992,11 +5992,11 @@
       <c r="AO10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
       <c r="AU10" s="8" t="s">
         <v>114</v>
       </c>
@@ -6006,18 +6006,18 @@
       <c r="AW10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="87"/>
+      <c r="AX10" s="96"/>
       <c r="AY10" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AZ10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BA10" s="87"/>
-      <c r="BB10" s="87"/>
-      <c r="BC10" s="87"/>
-      <c r="BD10" s="87"/>
-      <c r="BE10" s="87"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="96"/>
+      <c r="BE10" s="96"/>
     </row>
     <row r="11" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -16925,11 +16925,40 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:BE6"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:BE7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:AD8"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AR8"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AT8:AZ8"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="BB8:BB10"/>
     <mergeCell ref="BC8:BC10"/>
     <mergeCell ref="BD8:BD10"/>
@@ -16946,40 +16975,11 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:BE6"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:BE7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:AD8"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AH8:AR8"/>
-    <mergeCell ref="AS8:AS10"/>
-    <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A74" r:id="rId1" display="https://stats-3.oecd.org/index.aspx?DatasetCode=TIM_2019_MAIN" xr:uid="{8F586648-4D2F-44D4-887F-770D86CB4218}"/>
@@ -17018,824 +17018,824 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="108" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="109"/>
-      <c r="AS2" s="109"/>
-      <c r="AT2" s="109"/>
-      <c r="AU2" s="109"/>
-      <c r="AV2" s="109"/>
-      <c r="AW2" s="109"/>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="109"/>
-      <c r="BA2" s="109"/>
-      <c r="BB2" s="109"/>
-      <c r="BC2" s="109"/>
-      <c r="BD2" s="109"/>
-      <c r="BE2" s="109"/>
-      <c r="BF2" s="109"/>
-      <c r="BG2" s="109"/>
-      <c r="BH2" s="109"/>
-      <c r="BI2" s="109"/>
-      <c r="BJ2" s="109"/>
-      <c r="BK2" s="109"/>
-      <c r="BL2" s="109"/>
-      <c r="BM2" s="109"/>
-      <c r="BN2" s="109"/>
-      <c r="BO2" s="109"/>
-      <c r="BP2" s="109"/>
-      <c r="BQ2" s="109"/>
-      <c r="BR2" s="109"/>
-      <c r="BS2" s="109"/>
-      <c r="BT2" s="110"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="116"/>
+      <c r="BA2" s="116"/>
+      <c r="BB2" s="116"/>
+      <c r="BC2" s="116"/>
+      <c r="BD2" s="116"/>
+      <c r="BE2" s="116"/>
+      <c r="BF2" s="116"/>
+      <c r="BG2" s="116"/>
+      <c r="BH2" s="116"/>
+      <c r="BI2" s="116"/>
+      <c r="BJ2" s="116"/>
+      <c r="BK2" s="116"/>
+      <c r="BL2" s="116"/>
+      <c r="BM2" s="116"/>
+      <c r="BN2" s="116"/>
+      <c r="BO2" s="116"/>
+      <c r="BP2" s="116"/>
+      <c r="BQ2" s="116"/>
+      <c r="BR2" s="116"/>
+      <c r="BS2" s="116"/>
+      <c r="BT2" s="117"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="100"/>
-      <c r="BD3" s="100"/>
-      <c r="BE3" s="100"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
-      <c r="BH3" s="100"/>
-      <c r="BI3" s="100"/>
-      <c r="BJ3" s="100"/>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="100"/>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="101"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="120"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="118" t="s">
         <v>1199</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="100"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="100"/>
-      <c r="BD4" s="100"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="100"/>
-      <c r="BJ4" s="100"/>
-      <c r="BK4" s="100"/>
-      <c r="BL4" s="100"/>
-      <c r="BM4" s="100"/>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="100"/>
-      <c r="BP4" s="100"/>
-      <c r="BQ4" s="100"/>
-      <c r="BR4" s="100"/>
-      <c r="BS4" s="100"/>
-      <c r="BT4" s="101"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="120"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="100"/>
-      <c r="AW5" s="100"/>
-      <c r="AX5" s="100"/>
-      <c r="AY5" s="100"/>
-      <c r="AZ5" s="100"/>
-      <c r="BA5" s="100"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="100"/>
-      <c r="BD5" s="100"/>
-      <c r="BE5" s="100"/>
-      <c r="BF5" s="100"/>
-      <c r="BG5" s="100"/>
-      <c r="BH5" s="100"/>
-      <c r="BI5" s="100"/>
-      <c r="BJ5" s="100"/>
-      <c r="BK5" s="100"/>
-      <c r="BL5" s="100"/>
-      <c r="BM5" s="100"/>
-      <c r="BN5" s="100"/>
-      <c r="BO5" s="100"/>
-      <c r="BP5" s="100"/>
-      <c r="BQ5" s="100"/>
-      <c r="BR5" s="100"/>
-      <c r="BS5" s="100"/>
-      <c r="BT5" s="101"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
+      <c r="BJ5" s="119"/>
+      <c r="BK5" s="119"/>
+      <c r="BL5" s="119"/>
+      <c r="BM5" s="119"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="119"/>
+      <c r="BP5" s="119"/>
+      <c r="BQ5" s="119"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="119"/>
+      <c r="BT5" s="120"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="91" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="127" t="s">
         <v>1198</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="130" t="s">
         <v>1198</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="96"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="96"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="96"/>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="96"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="96"/>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="96"/>
-      <c r="BR6" s="96"/>
-      <c r="BS6" s="96"/>
-      <c r="BT6" s="95"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="131"/>
+      <c r="AH6" s="131"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="131"/>
+      <c r="AL6" s="131"/>
+      <c r="AM6" s="131"/>
+      <c r="AN6" s="131"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="131"/>
+      <c r="AQ6" s="131"/>
+      <c r="AR6" s="131"/>
+      <c r="AS6" s="131"/>
+      <c r="AT6" s="131"/>
+      <c r="AU6" s="131"/>
+      <c r="AV6" s="131"/>
+      <c r="AW6" s="131"/>
+      <c r="AX6" s="131"/>
+      <c r="AY6" s="131"/>
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="131"/>
+      <c r="BC6" s="131"/>
+      <c r="BD6" s="131"/>
+      <c r="BE6" s="131"/>
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="131"/>
+      <c r="BI6" s="131"/>
+      <c r="BJ6" s="131"/>
+      <c r="BK6" s="131"/>
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="131"/>
+      <c r="BO6" s="131"/>
+      <c r="BP6" s="131"/>
+      <c r="BQ6" s="131"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="91" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="127" t="s">
         <v>1201</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="130" t="s">
         <v>1201</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="91" t="s">
+      <c r="F7" s="132"/>
+      <c r="G7" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="91" t="s">
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="91" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="131"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="127" t="s">
         <v>1202</v>
       </c>
-      <c r="AJ7" s="94" t="s">
+      <c r="AJ7" s="130" t="s">
         <v>1202</v>
       </c>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="91" t="s">
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="AM7" s="91" t="s">
+      <c r="AM7" s="127" t="s">
         <v>1203</v>
       </c>
-      <c r="AN7" s="94" t="s">
+      <c r="AN7" s="130" t="s">
         <v>1203</v>
       </c>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="91" t="s">
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="131"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="131"/>
+      <c r="AW7" s="131"/>
+      <c r="AX7" s="131"/>
+      <c r="AY7" s="131"/>
+      <c r="AZ7" s="131"/>
+      <c r="BA7" s="131"/>
+      <c r="BB7" s="131"/>
+      <c r="BC7" s="131"/>
+      <c r="BD7" s="131"/>
+      <c r="BE7" s="132"/>
+      <c r="BF7" s="127" t="s">
         <v>1204</v>
       </c>
-      <c r="BG7" s="94" t="s">
+      <c r="BG7" s="130" t="s">
         <v>1204</v>
       </c>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="96"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="96"/>
-      <c r="BM7" s="96"/>
-      <c r="BN7" s="96"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="91" t="s">
+      <c r="BH7" s="131"/>
+      <c r="BI7" s="131"/>
+      <c r="BJ7" s="131"/>
+      <c r="BK7" s="131"/>
+      <c r="BL7" s="131"/>
+      <c r="BM7" s="131"/>
+      <c r="BN7" s="131"/>
+      <c r="BO7" s="132"/>
+      <c r="BP7" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="BQ7" s="91" t="s">
+      <c r="BQ7" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="BR7" s="91" t="s">
+      <c r="BR7" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="BS7" s="91" t="s">
+      <c r="BS7" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="BT7" s="91" t="s">
+      <c r="BT7" s="127" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="91" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="127" t="s">
         <v>1205</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="127" t="s">
         <v>1206</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="128"/>
+      <c r="H8" s="127" t="s">
         <v>1207</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="127" t="s">
         <v>1208</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="91" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="M8" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="91" t="s">
+      <c r="N8" s="127" t="s">
         <v>1209</v>
       </c>
-      <c r="O8" s="94" t="s">
+      <c r="O8" s="130" t="s">
         <v>1209</v>
       </c>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="91" t="s">
+      <c r="P8" s="132"/>
+      <c r="Q8" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="R8" s="94" t="s">
+      <c r="R8" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="91" t="s">
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="Y8" s="94" t="s">
+      <c r="Y8" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="91" t="s">
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="127" t="s">
         <v>1210</v>
       </c>
-      <c r="AB8" s="94" t="s">
+      <c r="AB8" s="130" t="s">
         <v>1210</v>
       </c>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="91" t="s">
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="127" t="s">
         <v>1211</v>
       </c>
-      <c r="AE8" s="91" t="s">
+      <c r="AE8" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AF8" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="91" t="s">
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="127" t="s">
         <v>1212</v>
       </c>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="91" t="s">
+      <c r="AI8" s="128"/>
+      <c r="AJ8" s="127" t="s">
         <v>1213</v>
       </c>
-      <c r="AK8" s="91" t="s">
+      <c r="AK8" s="127" t="s">
         <v>1214</v>
       </c>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="91" t="s">
+      <c r="AL8" s="128"/>
+      <c r="AM8" s="128"/>
+      <c r="AN8" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="AO8" s="94" t="s">
+      <c r="AO8" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="96"/>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="96"/>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="91" t="s">
+      <c r="AP8" s="131"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="131"/>
+      <c r="AS8" s="131"/>
+      <c r="AT8" s="131"/>
+      <c r="AU8" s="131"/>
+      <c r="AV8" s="132"/>
+      <c r="AW8" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="AX8" s="94" t="s">
+      <c r="AX8" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="AY8" s="96"/>
-      <c r="AZ8" s="95"/>
-      <c r="BA8" s="91" t="s">
+      <c r="AY8" s="131"/>
+      <c r="AZ8" s="132"/>
+      <c r="BA8" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="BB8" s="91" t="s">
+      <c r="BB8" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="BC8" s="91" t="s">
+      <c r="BC8" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="BD8" s="94" t="s">
+      <c r="BD8" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="BE8" s="95"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="91" t="s">
+      <c r="BE8" s="132"/>
+      <c r="BF8" s="128"/>
+      <c r="BG8" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="BH8" s="94" t="s">
+      <c r="BH8" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="BI8" s="96"/>
-      <c r="BJ8" s="95"/>
-      <c r="BK8" s="91" t="s">
+      <c r="BI8" s="131"/>
+      <c r="BJ8" s="132"/>
+      <c r="BK8" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="BL8" s="94" t="s">
+      <c r="BL8" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="BM8" s="96"/>
-      <c r="BN8" s="96"/>
-      <c r="BO8" s="95"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
+      <c r="BM8" s="131"/>
+      <c r="BN8" s="131"/>
+      <c r="BO8" s="132"/>
+      <c r="BP8" s="128"/>
+      <c r="BQ8" s="128"/>
+      <c r="BR8" s="128"/>
+      <c r="BS8" s="128"/>
+      <c r="BT8" s="128"/>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="91" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="91" t="s">
+      <c r="Q9" s="128"/>
+      <c r="R9" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="94" t="s">
+      <c r="T9" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="91" t="s">
+      <c r="U9" s="132"/>
+      <c r="V9" s="127" t="s">
         <v>1215</v>
       </c>
-      <c r="W9" s="91" t="s">
+      <c r="W9" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="91" t="s">
+      <c r="X9" s="128"/>
+      <c r="Y9" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="Z9" s="91" t="s">
+      <c r="Z9" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="91" t="s">
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="AC9" s="91" t="s">
+      <c r="AC9" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="91" t="s">
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="AG9" s="91" t="s">
+      <c r="AG9" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="91" t="s">
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="128"/>
+      <c r="AO9" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="AP9" s="91" t="s">
+      <c r="AP9" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="AQ9" s="94" t="s">
+      <c r="AQ9" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="91" t="s">
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="131"/>
+      <c r="AT9" s="131"/>
+      <c r="AU9" s="132"/>
+      <c r="AV9" s="127" t="s">
         <v>1216</v>
       </c>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="91" t="s">
+      <c r="AW9" s="128"/>
+      <c r="AX9" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="AY9" s="91" t="s">
+      <c r="AY9" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="AZ9" s="91" t="s">
+      <c r="AZ9" s="127" t="s">
         <v>1217</v>
       </c>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="91" t="s">
+      <c r="BA9" s="128"/>
+      <c r="BB9" s="128"/>
+      <c r="BC9" s="128"/>
+      <c r="BD9" s="127" t="s">
         <v>1218</v>
       </c>
-      <c r="BE9" s="91" t="s">
+      <c r="BE9" s="127" t="s">
         <v>1219</v>
       </c>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="91" t="s">
+      <c r="BF9" s="128"/>
+      <c r="BG9" s="128"/>
+      <c r="BH9" s="127" t="s">
         <v>1220</v>
       </c>
-      <c r="BI9" s="91" t="s">
+      <c r="BI9" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="BJ9" s="91" t="s">
+      <c r="BJ9" s="127" t="s">
         <v>1221</v>
       </c>
-      <c r="BK9" s="93"/>
-      <c r="BL9" s="91" t="s">
+      <c r="BK9" s="128"/>
+      <c r="BL9" s="127" t="s">
         <v>1222</v>
       </c>
-      <c r="BM9" s="94" t="s">
+      <c r="BM9" s="130" t="s">
         <v>1222</v>
       </c>
-      <c r="BN9" s="95"/>
-      <c r="BO9" s="91" t="s">
+      <c r="BN9" s="132"/>
+      <c r="BO9" s="127" t="s">
         <v>1223</v>
       </c>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="93"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="93"/>
+      <c r="BP9" s="128"/>
+      <c r="BQ9" s="128"/>
+      <c r="BR9" s="128"/>
+      <c r="BS9" s="128"/>
+      <c r="BT9" s="128"/>
     </row>
     <row r="10" spans="1:72" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
       <c r="T10" s="51" t="s">
         <v>1224</v>
       </c>
       <c r="U10" s="51" t="s">
         <v>1225</v>
       </c>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
       <c r="AQ10" s="51" t="s">
         <v>1226</v>
       </c>
@@ -17851,35 +17851,35 @@
       <c r="AU10" s="51" t="s">
         <v>1230</v>
       </c>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="92"/>
-      <c r="BJ10" s="92"/>
-      <c r="BK10" s="92"/>
-      <c r="BL10" s="92"/>
+      <c r="AV10" s="129"/>
+      <c r="AW10" s="129"/>
+      <c r="AX10" s="129"/>
+      <c r="AY10" s="129"/>
+      <c r="AZ10" s="129"/>
+      <c r="BA10" s="129"/>
+      <c r="BB10" s="129"/>
+      <c r="BC10" s="129"/>
+      <c r="BD10" s="129"/>
+      <c r="BE10" s="129"/>
+      <c r="BF10" s="129"/>
+      <c r="BG10" s="129"/>
+      <c r="BH10" s="129"/>
+      <c r="BI10" s="129"/>
+      <c r="BJ10" s="129"/>
+      <c r="BK10" s="129"/>
+      <c r="BL10" s="129"/>
       <c r="BM10" s="51" t="s">
         <v>1231</v>
       </c>
       <c r="BN10" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="BO10" s="92"/>
-      <c r="BP10" s="92"/>
-      <c r="BQ10" s="92"/>
-      <c r="BR10" s="92"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="92"/>
+      <c r="BO10" s="129"/>
+      <c r="BP10" s="129"/>
+      <c r="BQ10" s="129"/>
+      <c r="BR10" s="129"/>
+      <c r="BS10" s="129"/>
+      <c r="BT10" s="129"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
@@ -18685,12 +18685,74 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:BT2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BT3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BT4"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="BO9:BO10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="AZ9:AZ10"/>
+    <mergeCell ref="BD9:BD10"/>
+    <mergeCell ref="BE9:BE10"/>
+    <mergeCell ref="BH9:BH10"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BG8:BG10"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="BT7:BT10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="BF7:BF10"/>
+    <mergeCell ref="BG7:BO7"/>
+    <mergeCell ref="BP7:BP10"/>
+    <mergeCell ref="BQ7:BQ10"/>
+    <mergeCell ref="BS7:BS10"/>
+    <mergeCell ref="BK8:BK10"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="BL9:BL10"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="AI7:AI10"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AL10"/>
+    <mergeCell ref="AM7:AM10"/>
+    <mergeCell ref="BR7:BR10"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AX8:AZ8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:BT5"/>
     <mergeCell ref="A6:B10"/>
@@ -18707,74 +18769,12 @@
     <mergeCell ref="X8:X10"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="L7:AH7"/>
-    <mergeCell ref="AI7:AI10"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AL10"/>
-    <mergeCell ref="AM7:AM10"/>
-    <mergeCell ref="BR7:BR10"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AN8:AN10"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="BS7:BS10"/>
-    <mergeCell ref="BK8:BK10"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="BL9:BL10"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="BT7:BT10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="BF7:BF10"/>
-    <mergeCell ref="BG7:BO7"/>
-    <mergeCell ref="BP7:BP10"/>
-    <mergeCell ref="BQ7:BQ10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="BO9:BO10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="AZ9:AZ10"/>
-    <mergeCell ref="BD9:BD10"/>
-    <mergeCell ref="BE9:BE10"/>
-    <mergeCell ref="BH9:BH10"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BC8:BC10"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BG8:BG10"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:BT2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BT3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BT4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2023&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B25102CB-E2DF-4CA3-BD99-7C30E1B71191}"/>
@@ -26384,7 +26384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5772A-2990-47B3-99CF-FDF7B4616747}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -26653,20 +26653,20 @@
         <v>336259.10000000009</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="130">
+      <c r="J7" s="90">
         <f>J6</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K7" s="130">
+      <c r="K7" s="90">
         <f>K6</f>
         <v>0.76802125678366684</v>
       </c>
-      <c r="L7" s="131"/>
-      <c r="M7" s="130">
+      <c r="L7" s="91"/>
+      <c r="M7" s="90">
         <f>M6</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N7" s="130">
+      <c r="N7" s="90">
         <f>N6</f>
         <v>0.36567088002024611</v>
       </c>
@@ -26740,11 +26740,11 @@
         <f>H34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="92">
         <f>G7/SUM(G7:H7)</f>
         <v>0.64272627378847369</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="92">
         <f>H7/SUM(G7:H7)</f>
         <v>0.35727372621152625</v>
       </c>
@@ -26752,11 +26752,11 @@
         <f>H58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="92">
         <f>J7</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K9" s="132">
+      <c r="K9" s="92">
         <f>K7</f>
         <v>0.76802125678366684</v>
       </c>
@@ -26764,11 +26764,11 @@
         <f>H41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="132">
+      <c r="M9" s="92">
         <f>M7</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N9" s="132">
+      <c r="N9" s="92">
         <f>N7</f>
         <v>0.36567088002024611</v>
       </c>
@@ -26776,15 +26776,15 @@
         <f>H42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="132">
+      <c r="P9" s="92">
         <f>P7/SUM(P7:R7)</f>
         <v>0.60187231506233263</v>
       </c>
-      <c r="Q9" s="132">
+      <c r="Q9" s="92">
         <f>Q7/SUM(P7:R7)</f>
         <v>0.17161085476193078</v>
       </c>
-      <c r="R9" s="132">
+      <c r="R9" s="92">
         <f>R7/SUM(P7:R7)</f>
         <v>0.22651683017573657</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>31636000000</v>
       </c>
       <c r="P10" s="47">
-        <f t="shared" ref="P9:R12" si="5">$S10*(P$7/$S$8)</f>
+        <f t="shared" ref="P10:R12" si="5">$S10*(P$7/$S$8)</f>
         <v>66746355144.368149</v>
       </c>
       <c r="Q10" s="47">
@@ -27114,40 +27114,40 @@
       <c r="K26" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="111" t="s">
+      <c r="M26" s="71" t="s">
         <v>1241</v>
       </c>
-      <c r="N26" s="111" t="s">
+      <c r="N26" s="71" t="s">
         <v>1242</v>
       </c>
-      <c r="O26" s="111" t="s">
+      <c r="O26" s="71" t="s">
         <v>1243</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="P26" s="71" t="s">
         <v>1244</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="71" t="s">
         <v>1245</v>
       </c>
-      <c r="R26" s="111" t="s">
+      <c r="R26" s="71" t="s">
         <v>1246</v>
       </c>
-      <c r="S26" s="111" t="s">
+      <c r="S26" s="71" t="s">
         <v>1247</v>
       </c>
-      <c r="T26" s="111" t="s">
+      <c r="T26" s="71" t="s">
         <v>1248</v>
       </c>
-      <c r="U26" s="111" t="s">
+      <c r="U26" s="71" t="s">
         <v>1249</v>
       </c>
-      <c r="V26" s="111" t="s">
+      <c r="V26" s="71" t="s">
         <v>1250</v>
       </c>
-      <c r="Y26" s="116" t="s">
+      <c r="Y26" s="76" t="s">
         <v>1296</v>
       </c>
-      <c r="Z26" s="117">
+      <c r="Z26" s="77">
         <v>2015</v>
       </c>
     </row>
@@ -27182,38 +27182,38 @@
       <c r="K27" s="34">
         <v>7310806</v>
       </c>
-      <c r="M27" s="112" t="s">
+      <c r="M27" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="N27" s="113">
+      <c r="N27" s="73">
         <v>1306702060.5499315</v>
       </c>
-      <c r="O27" s="113">
+      <c r="O27" s="73">
         <v>148063</v>
       </c>
-      <c r="P27" s="113">
+      <c r="P27" s="73">
         <v>11519410352.717516</v>
       </c>
-      <c r="Q27" s="113">
+      <c r="Q27" s="73">
         <v>22717814.536255758</v>
       </c>
-      <c r="R27" s="113">
+      <c r="R27" s="73">
         <v>431308093.40285647</v>
       </c>
-      <c r="S27" s="113">
+      <c r="S27" s="73">
         <v>7601712988.706522</v>
       </c>
-      <c r="T27" s="113">
+      <c r="T27" s="73">
         <v>0</v>
       </c>
-      <c r="U27" s="113">
+      <c r="U27" s="73">
         <v>3491148228.5713687</v>
       </c>
-      <c r="V27" s="113">
+      <c r="V27" s="73">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="120"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="80"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -27276,10 +27276,10 @@
       <c r="V28">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y28" s="121" t="s">
+      <c r="Y28" s="81" t="s">
         <v>1297</v>
       </c>
-      <c r="Z28" s="122">
+      <c r="Z28" s="82">
         <v>64615.98526307274</v>
       </c>
     </row>
@@ -27314,40 +27314,40 @@
       <c r="K29" s="34">
         <v>129354</v>
       </c>
-      <c r="M29" s="112" t="s">
+      <c r="M29" s="72" t="s">
         <v>1252</v>
       </c>
-      <c r="N29" s="113">
+      <c r="N29" s="73">
         <v>1297267192.8821502</v>
       </c>
-      <c r="O29" s="113">
+      <c r="O29" s="73">
         <v>133723</v>
       </c>
-      <c r="P29" s="113">
+      <c r="P29" s="73">
         <v>11158155930.177727</v>
       </c>
-      <c r="Q29" s="113">
+      <c r="Q29" s="73">
         <v>15478071.442284144</v>
       </c>
-      <c r="R29" s="113">
+      <c r="R29" s="73">
         <v>3400589.4355021538</v>
       </c>
-      <c r="S29" s="113">
+      <c r="S29" s="73">
         <v>7218782754.3940811</v>
       </c>
-      <c r="T29" s="113">
+      <c r="T29" s="73">
         <v>0</v>
       </c>
-      <c r="U29" s="113">
+      <c r="U29" s="73">
         <v>3349165753.2852859</v>
       </c>
-      <c r="V29" s="113">
+      <c r="V29" s="73">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y29" s="123" t="s">
+      <c r="Y29" s="83" t="s">
         <v>1298</v>
       </c>
-      <c r="Z29" s="124">
+      <c r="Z29" s="84">
         <v>26221.561705366206</v>
       </c>
     </row>
@@ -27412,10 +27412,10 @@
       <c r="V30">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y30" s="125" t="s">
+      <c r="Y30" s="85" t="s">
         <v>1299</v>
       </c>
-      <c r="Z30" s="126">
+      <c r="Z30" s="86">
         <v>23404.888504693812</v>
       </c>
     </row>
@@ -27450,40 +27450,40 @@
       <c r="K31" s="34">
         <v>9964</v>
       </c>
-      <c r="M31" s="112" t="s">
+      <c r="M31" s="72" t="s">
         <v>1254</v>
       </c>
-      <c r="N31" s="113">
+      <c r="N31" s="73">
         <v>9545802.0354693029</v>
       </c>
-      <c r="O31" s="113">
+      <c r="O31" s="73">
         <v>14340</v>
       </c>
-      <c r="P31" s="113">
+      <c r="P31" s="73">
         <v>361254908.36018932</v>
       </c>
-      <c r="Q31" s="113">
+      <c r="Q31" s="73">
         <v>7239743.0939716157</v>
       </c>
-      <c r="R31" s="113">
+      <c r="R31" s="73">
         <v>427340739.06143731</v>
       </c>
-      <c r="S31" s="113">
+      <c r="S31" s="73">
         <v>382819215.01538932</v>
       </c>
-      <c r="T31" s="113">
+      <c r="T31" s="73">
         <v>0</v>
       </c>
-      <c r="U31" s="113">
+      <c r="U31" s="73">
         <v>141982453.01575536</v>
       </c>
-      <c r="V31" s="113">
+      <c r="V31" s="73">
         <v>1330197200.5822122</v>
       </c>
-      <c r="Y31" s="127" t="s">
+      <c r="Y31" s="87" t="s">
         <v>1300</v>
       </c>
-      <c r="Z31" s="128">
+      <c r="Z31" s="88">
         <v>14989.535053012718</v>
       </c>
     </row>
@@ -27580,34 +27580,34 @@
       <c r="K33" s="34">
         <v>86727</v>
       </c>
-      <c r="M33" s="112" t="s">
+      <c r="M33" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="113">
+      <c r="N33" s="73">
         <v>8266490842.2795811</v>
       </c>
-      <c r="O33" s="113">
+      <c r="O33" s="73">
         <v>53591</v>
       </c>
-      <c r="P33" s="113">
+      <c r="P33" s="73">
         <v>60687659392.693939</v>
       </c>
-      <c r="Q33" s="113">
+      <c r="Q33" s="73">
         <v>4712323815.234766</v>
       </c>
-      <c r="R33" s="113">
+      <c r="R33" s="73">
         <v>72867445.497491658</v>
       </c>
-      <c r="S33" s="113">
+      <c r="S33" s="73">
         <v>14437910094.097101</v>
       </c>
-      <c r="T33" s="113">
+      <c r="T33" s="73">
         <v>0</v>
       </c>
-      <c r="U33" s="113">
+      <c r="U33" s="73">
         <v>2019879400.793005</v>
       </c>
-      <c r="V33" s="113">
+      <c r="V33" s="73">
         <v>90197184581.595901</v>
       </c>
     </row>
@@ -27672,10 +27672,10 @@
       <c r="V34">
         <v>90197184581.595901</v>
       </c>
-      <c r="Y34" s="121" t="s">
+      <c r="Y34" s="81" t="s">
         <v>1297</v>
       </c>
-      <c r="Z34" s="117">
+      <c r="Z34" s="77">
         <v>2015</v>
       </c>
     </row>
@@ -27710,38 +27710,38 @@
       <c r="K35" s="34">
         <v>16137</v>
       </c>
-      <c r="M35" s="112" t="s">
+      <c r="M35" s="72" t="s">
         <v>1257</v>
       </c>
-      <c r="N35" s="113">
+      <c r="N35" s="73">
         <v>7130567441.7257786</v>
       </c>
-      <c r="O35" s="113">
+      <c r="O35" s="73">
         <v>19838</v>
       </c>
-      <c r="P35" s="113">
+      <c r="P35" s="73">
         <v>21590616914.442547</v>
       </c>
-      <c r="Q35" s="113">
+      <c r="Q35" s="73">
         <v>3627610582.7069497</v>
       </c>
-      <c r="R35" s="113">
+      <c r="R35" s="73">
         <v>72867445.497491658</v>
       </c>
-      <c r="S35" s="113">
+      <c r="S35" s="73">
         <v>11830994109.66503</v>
       </c>
-      <c r="T35" s="113">
+      <c r="T35" s="73">
         <v>0</v>
       </c>
-      <c r="U35" s="113">
+      <c r="U35" s="73">
         <v>666753944.41147113</v>
       </c>
-      <c r="V35" s="113">
+      <c r="V35" s="73">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="118"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="78"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27804,10 +27804,10 @@
       <c r="V36">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y36" s="116" t="s">
+      <c r="Y36" s="76" t="s">
         <v>1301</v>
       </c>
-      <c r="Z36" s="122">
+      <c r="Z36" s="82">
         <v>42130.370628106539</v>
       </c>
     </row>
@@ -27842,40 +27842,40 @@
       <c r="K37" s="34">
         <v>227490</v>
       </c>
-      <c r="M37" s="112" t="s">
+      <c r="M37" s="72" t="s">
         <v>1259</v>
       </c>
-      <c r="N37" s="113">
+      <c r="N37" s="73">
         <v>1261631266.7170815</v>
       </c>
-      <c r="O37" s="113">
+      <c r="O37" s="73">
         <v>33753</v>
       </c>
-      <c r="P37" s="113">
+      <c r="P37" s="73">
         <v>39097039905.733597</v>
       </c>
-      <c r="Q37" s="113">
+      <c r="Q37" s="73">
         <v>1084713232.5278163</v>
       </c>
-      <c r="R37" s="113">
+      <c r="R37" s="73">
         <v>0</v>
       </c>
-      <c r="S37" s="113">
+      <c r="S37" s="73">
         <v>2606915848.9715786</v>
       </c>
-      <c r="T37" s="113">
+      <c r="T37" s="73">
         <v>0</v>
       </c>
-      <c r="U37" s="113">
+      <c r="U37" s="73">
         <v>1353236460.6230078</v>
       </c>
-      <c r="V37" s="113">
+      <c r="V37" s="73">
         <v>45403570467.573082</v>
       </c>
-      <c r="Y37" s="116" t="s">
+      <c r="Y37" s="76" t="s">
         <v>1302</v>
       </c>
-      <c r="Z37" s="122">
+      <c r="Z37" s="82">
         <v>24286.8397775126</v>
       </c>
     </row>
@@ -27972,34 +27972,34 @@
       <c r="K39" s="34">
         <v>490800</v>
       </c>
-      <c r="M39" s="112" t="s">
+      <c r="M39" s="72" t="s">
         <v>1261</v>
       </c>
-      <c r="N39" s="113">
+      <c r="N39" s="73">
         <v>469546162.21027291</v>
       </c>
-      <c r="O39" s="113">
+      <c r="O39" s="73">
         <v>14003</v>
       </c>
-      <c r="P39" s="113">
+      <c r="P39" s="73">
         <v>1521476863.0696039</v>
       </c>
-      <c r="Q39" s="113">
+      <c r="Q39" s="73">
         <v>89872672.890682131</v>
       </c>
-      <c r="R39" s="113">
+      <c r="R39" s="73">
         <v>701088188.61936069</v>
       </c>
-      <c r="S39" s="113">
+      <c r="S39" s="73">
         <v>765961358.06948328</v>
       </c>
-      <c r="T39" s="113">
+      <c r="T39" s="73">
         <v>0</v>
       </c>
-      <c r="U39" s="113">
+      <c r="U39" s="73">
         <v>290797503.93466085</v>
       </c>
-      <c r="V39" s="113">
+      <c r="V39" s="73">
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
@@ -28102,34 +28102,34 @@
       <c r="K41" s="34">
         <v>26135</v>
       </c>
-      <c r="M41" s="112" t="s">
+      <c r="M41" s="72" t="s">
         <v>1263</v>
       </c>
-      <c r="N41" s="113">
+      <c r="N41" s="73">
         <v>952797572.37284994</v>
       </c>
-      <c r="O41" s="113">
+      <c r="O41" s="73">
         <v>5507</v>
       </c>
-      <c r="P41" s="113">
+      <c r="P41" s="73">
         <v>2429423437.3547029</v>
       </c>
-      <c r="Q41" s="113">
+      <c r="Q41" s="73">
         <v>998585.25434091256</v>
       </c>
-      <c r="R41" s="113">
+      <c r="R41" s="73">
         <v>0</v>
       </c>
-      <c r="S41" s="113">
+      <c r="S41" s="73">
         <v>949563448.90718198</v>
       </c>
-      <c r="T41" s="113">
+      <c r="T41" s="73">
         <v>0</v>
       </c>
-      <c r="U41" s="113">
+      <c r="U41" s="73">
         <v>316095095.78219879</v>
       </c>
-      <c r="V41" s="113">
+      <c r="V41" s="73">
         <v>4648883646.6712751</v>
       </c>
     </row>
@@ -28226,34 +28226,34 @@
       <c r="K43" s="34">
         <v>46896</v>
       </c>
-      <c r="M43" s="112" t="s">
+      <c r="M43" s="72" t="s">
         <v>1265</v>
       </c>
-      <c r="N43" s="113">
+      <c r="N43" s="73">
         <v>228005085.27106535</v>
       </c>
-      <c r="O43" s="113">
+      <c r="O43" s="73">
         <v>12194</v>
       </c>
-      <c r="P43" s="113">
+      <c r="P43" s="73">
         <v>873853938.769485</v>
       </c>
-      <c r="Q43" s="113">
+      <c r="Q43" s="73">
         <v>89123733.949926436</v>
       </c>
-      <c r="R43" s="113">
+      <c r="R43" s="73">
         <v>701088188.61936069</v>
       </c>
-      <c r="S43" s="113">
+      <c r="S43" s="73">
         <v>558149484.19674885</v>
       </c>
-      <c r="T43" s="113">
+      <c r="T43" s="73">
         <v>0</v>
       </c>
-      <c r="U43" s="113">
+      <c r="U43" s="73">
         <v>189166072.8742767</v>
       </c>
-      <c r="V43" s="113">
+      <c r="V43" s="73">
         <v>2639398697.6808629</v>
       </c>
     </row>
@@ -28350,34 +28350,34 @@
       <c r="K45" s="34">
         <v>121224</v>
       </c>
-      <c r="M45" s="112" t="s">
+      <c r="M45" s="72" t="s">
         <v>1267</v>
       </c>
-      <c r="N45" s="113">
+      <c r="N45" s="73">
         <v>2222486657.5109367</v>
       </c>
-      <c r="O45" s="113">
+      <c r="O45" s="73">
         <v>151154</v>
       </c>
-      <c r="P45" s="113">
+      <c r="P45" s="73">
         <v>27400666701.752556</v>
       </c>
-      <c r="Q45" s="113">
+      <c r="Q45" s="73">
         <v>622617906.08155894</v>
       </c>
-      <c r="R45" s="113">
+      <c r="R45" s="73">
         <v>838710893.05547976</v>
       </c>
-      <c r="S45" s="113">
+      <c r="S45" s="73">
         <v>10031770194.062885</v>
       </c>
-      <c r="T45" s="113">
+      <c r="T45" s="73">
         <v>0</v>
       </c>
-      <c r="U45" s="113">
+      <c r="U45" s="73">
         <v>4236554756.1895924</v>
       </c>
-      <c r="V45" s="113">
+      <c r="V45" s="73">
         <v>45352958262.653008</v>
       </c>
     </row>
@@ -28474,34 +28474,34 @@
       <c r="K47" s="34">
         <v>72921</v>
       </c>
-      <c r="M47" s="112" t="s">
+      <c r="M47" s="72" t="s">
         <v>1269</v>
       </c>
-      <c r="N47" s="113">
+      <c r="N47" s="73">
         <v>1899948233.971308</v>
       </c>
-      <c r="O47" s="113">
+      <c r="O47" s="73">
         <v>131410</v>
       </c>
-      <c r="P47" s="113">
+      <c r="P47" s="73">
         <v>23497086460.520012</v>
       </c>
-      <c r="Q47" s="113">
+      <c r="Q47" s="73">
         <v>521760795.39312679</v>
       </c>
-      <c r="R47" s="113">
+      <c r="R47" s="73">
         <v>483888988.16405404</v>
       </c>
-      <c r="S47" s="113">
+      <c r="S47" s="73">
         <v>8520722346.2728558</v>
       </c>
-      <c r="T47" s="113">
+      <c r="T47" s="73">
         <v>0</v>
       </c>
-      <c r="U47" s="113">
+      <c r="U47" s="73">
         <v>3650632204.7298689</v>
       </c>
-      <c r="V47" s="113">
+      <c r="V47" s="73">
         <v>38574170439.051224</v>
       </c>
     </row>
@@ -28598,34 +28598,34 @@
       <c r="K49" s="34">
         <v>8477</v>
       </c>
-      <c r="M49" s="112" t="s">
+      <c r="M49" s="72" t="s">
         <v>1271</v>
       </c>
-      <c r="N49" s="113">
+      <c r="N49" s="73">
         <v>473257466.17673761</v>
       </c>
-      <c r="O49" s="113">
+      <c r="O49" s="73">
         <v>26802</v>
       </c>
-      <c r="P49" s="113">
+      <c r="P49" s="73">
         <v>5663489273.1745396</v>
       </c>
-      <c r="Q49" s="113">
+      <c r="Q49" s="73">
         <v>100857110.68843216</v>
       </c>
-      <c r="R49" s="113">
+      <c r="R49" s="73">
         <v>354821904.89142573</v>
       </c>
-      <c r="S49" s="113">
+      <c r="S49" s="73">
         <v>1991280609.2443142</v>
       </c>
-      <c r="T49" s="113">
+      <c r="T49" s="73">
         <v>0</v>
       </c>
-      <c r="U49" s="113">
+      <c r="U49" s="73">
         <v>824041350.96202862</v>
       </c>
-      <c r="V49" s="113">
+      <c r="V49" s="73">
         <v>9407774517.1374779</v>
       </c>
     </row>
@@ -28719,34 +28719,34 @@
       <c r="K51" s="34">
         <v>546841</v>
       </c>
-      <c r="M51" s="112" t="s">
+      <c r="M51" s="72" t="s">
         <v>1273</v>
       </c>
-      <c r="N51" s="113">
+      <c r="N51" s="73">
         <v>1678287009.8913183</v>
       </c>
-      <c r="O51" s="113">
+      <c r="O51" s="73">
         <v>44734</v>
       </c>
-      <c r="P51" s="113">
+      <c r="P51" s="73">
         <v>11502895221.353985</v>
       </c>
-      <c r="Q51" s="113">
+      <c r="Q51" s="73">
         <v>717733151.55753088</v>
       </c>
-      <c r="R51" s="113">
+      <c r="R51" s="73">
         <v>15302652.459759692</v>
       </c>
-      <c r="S51" s="113">
+      <c r="S51" s="73">
         <v>4083801384.9274535</v>
       </c>
-      <c r="T51" s="113">
+      <c r="T51" s="73">
         <v>0</v>
       </c>
-      <c r="U51" s="113">
+      <c r="U51" s="73">
         <v>1670738148.1770575</v>
       </c>
-      <c r="V51" s="113">
+      <c r="V51" s="73">
         <v>19668802302.367107</v>
       </c>
     </row>
@@ -28837,34 +28837,34 @@
       <c r="K53" s="34">
         <v>5348</v>
       </c>
-      <c r="M53" s="112" t="s">
+      <c r="M53" s="72" t="s">
         <v>1275</v>
       </c>
-      <c r="N53" s="113">
+      <c r="N53" s="73">
         <v>2106970962.552319</v>
       </c>
-      <c r="O53" s="113">
+      <c r="O53" s="73">
         <v>30047</v>
       </c>
-      <c r="P53" s="113">
+      <c r="P53" s="73">
         <v>5682036551.2180834</v>
       </c>
-      <c r="Q53" s="113">
+      <c r="Q53" s="73">
         <v>707497652.70053649</v>
       </c>
-      <c r="R53" s="113">
+      <c r="R53" s="73">
         <v>566764.90591702564</v>
       </c>
-      <c r="S53" s="113">
+      <c r="S53" s="73">
         <v>1755302406.6754115</v>
       </c>
-      <c r="T53" s="113">
+      <c r="T53" s="73">
         <v>0</v>
       </c>
-      <c r="U53" s="113">
+      <c r="U53" s="73">
         <v>935825806.01349056</v>
       </c>
-      <c r="V53" s="113">
+      <c r="V53" s="73">
         <v>11188230191.06576</v>
       </c>
     </row>
@@ -28955,34 +28955,34 @@
       <c r="K55" s="34">
         <v>27760</v>
       </c>
-      <c r="M55" s="112" t="s">
+      <c r="M55" s="72" t="s">
         <v>1277</v>
       </c>
-      <c r="N55" s="113">
+      <c r="N55" s="73">
         <v>56705031.782545343</v>
       </c>
-      <c r="O55" s="113">
+      <c r="O55" s="73">
         <v>15048</v>
       </c>
-      <c r="P55" s="113">
+      <c r="P55" s="73">
         <v>642601985.01381433</v>
       </c>
-      <c r="Q55" s="113">
+      <c r="Q55" s="73">
         <v>10485145.170579581</v>
       </c>
-      <c r="R55" s="113">
+      <c r="R55" s="73">
         <v>14735887.553842666</v>
       </c>
-      <c r="S55" s="113">
+      <c r="S55" s="73">
         <v>466369137.95732343</v>
       </c>
-      <c r="T55" s="113">
+      <c r="T55" s="73">
         <v>0</v>
       </c>
-      <c r="U55" s="113">
+      <c r="U55" s="73">
         <v>228778011.09896329</v>
       </c>
-      <c r="V55" s="113">
+      <c r="V55" s="73">
         <v>1419690246.5770686</v>
       </c>
     </row>
@@ -29073,34 +29073,34 @@
       <c r="K57" s="34">
         <v>121879</v>
       </c>
-      <c r="M57" s="112" t="s">
+      <c r="M57" s="72" t="s">
         <v>1279</v>
       </c>
-      <c r="N57" s="113">
+      <c r="N57" s="73">
         <v>17429692130.770443</v>
       </c>
-      <c r="O57" s="113">
+      <c r="O57" s="73">
         <v>466386</v>
       </c>
-      <c r="P57" s="113">
+      <c r="P57" s="73">
         <v>128368469303.36765</v>
       </c>
-      <c r="Q57" s="113">
+      <c r="Q57" s="73">
         <v>6190456868.1116009</v>
       </c>
-      <c r="R57" s="113">
+      <c r="R57" s="73">
         <v>2461590164.6931825</v>
       </c>
-      <c r="S57" s="113">
+      <c r="S57" s="73">
         <v>46857003390.229973</v>
       </c>
-      <c r="T57" s="113">
+      <c r="T57" s="73">
         <v>32114865.704496637</v>
       </c>
-      <c r="U57" s="113">
+      <c r="U57" s="73">
         <v>14460515178.179235</v>
       </c>
-      <c r="V57" s="113">
+      <c r="V57" s="73">
         <v>215800308287.05658</v>
       </c>
     </row>
@@ -29191,34 +29191,34 @@
       <c r="K59" s="34">
         <v>32875</v>
       </c>
-      <c r="M59" s="112" t="s">
+      <c r="M59" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="N59" s="113">
+      <c r="N59" s="73">
         <v>78504091490.033295</v>
       </c>
-      <c r="O59" s="113">
+      <c r="O59" s="73">
         <v>1046982</v>
       </c>
-      <c r="P59" s="113">
+      <c r="P59" s="73">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q59" s="113">
+      <c r="Q59" s="73">
         <v>14621035647.746056</v>
       </c>
-      <c r="R59" s="113">
+      <c r="R59" s="73">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S59" s="113">
+      <c r="S59" s="73">
         <v>207189119008.2312</v>
       </c>
-      <c r="T59" s="113">
+      <c r="T59" s="73">
         <v>0</v>
       </c>
-      <c r="U59" s="113">
+      <c r="U59" s="73">
         <v>47523291302.504768</v>
       </c>
-      <c r="V59" s="113">
+      <c r="V59" s="73">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -29309,34 +29309,34 @@
       <c r="K61" s="34">
         <v>229589</v>
       </c>
-      <c r="M61" s="112" t="s">
+      <c r="M61" s="72" t="s">
         <v>945</v>
       </c>
-      <c r="N61" s="113">
+      <c r="N61" s="73">
         <v>67476297698.493103</v>
       </c>
-      <c r="O61" s="113">
+      <c r="O61" s="73">
         <v>798544</v>
       </c>
-      <c r="P61" s="113">
+      <c r="P61" s="73">
         <v>441742765741.36365</v>
       </c>
-      <c r="Q61" s="113">
+      <c r="Q61" s="73">
         <v>10383039828.323223</v>
       </c>
-      <c r="R61" s="113">
+      <c r="R61" s="73">
         <v>7651054396.3270893</v>
       </c>
-      <c r="S61" s="113">
+      <c r="S61" s="73">
         <v>171867442674.04648</v>
       </c>
-      <c r="T61" s="113">
+      <c r="T61" s="73">
         <v>0</v>
       </c>
-      <c r="U61" s="113">
+      <c r="U61" s="73">
         <v>38643049029.573586</v>
       </c>
-      <c r="V61" s="113">
+      <c r="V61" s="73">
         <v>737764447912.1272</v>
       </c>
     </row>
@@ -29427,34 +29427,34 @@
       <c r="K63" s="34">
         <v>47193</v>
       </c>
-      <c r="M63" s="112" t="s">
+      <c r="M63" s="72" t="s">
         <v>947</v>
       </c>
-      <c r="N63" s="113">
+      <c r="N63" s="73">
         <v>5059416710.4255381</v>
       </c>
-      <c r="O63" s="113">
+      <c r="O63" s="73">
         <v>84930</v>
       </c>
-      <c r="P63" s="113">
+      <c r="P63" s="73">
         <v>97953802980.534073</v>
       </c>
-      <c r="Q63" s="113">
+      <c r="Q63" s="73">
         <v>3660813542.4137855</v>
       </c>
-      <c r="R63" s="113">
+      <c r="R63" s="73">
         <v>255915836.97198397</v>
       </c>
-      <c r="S63" s="113">
+      <c r="S63" s="73">
         <v>20101780091.966759</v>
       </c>
-      <c r="T63" s="113">
+      <c r="T63" s="73">
         <v>0</v>
       </c>
-      <c r="U63" s="113">
+      <c r="U63" s="73">
         <v>4245598894.5075283</v>
       </c>
-      <c r="V63" s="113">
+      <c r="V63" s="73">
         <v>131277412986.81966</v>
       </c>
     </row>
@@ -29545,34 +29545,34 @@
       <c r="K65" s="34">
         <v>7603</v>
       </c>
-      <c r="M65" s="112" t="s">
+      <c r="M65" s="72" t="s">
         <v>949</v>
       </c>
-      <c r="N65" s="113">
+      <c r="N65" s="73">
         <v>5648457179.3464718</v>
       </c>
-      <c r="O65" s="113">
+      <c r="O65" s="73">
         <v>128749</v>
       </c>
-      <c r="P65" s="113">
+      <c r="P65" s="73">
         <v>27999579018.642555</v>
       </c>
-      <c r="Q65" s="113">
+      <c r="Q65" s="73">
         <v>577182277.00904739</v>
       </c>
-      <c r="R65" s="113">
+      <c r="R65" s="73">
         <v>1267410240.9736962</v>
       </c>
-      <c r="S65" s="113">
+      <c r="S65" s="73">
         <v>11337027772.73737</v>
       </c>
-      <c r="T65" s="113">
+      <c r="T65" s="73">
         <v>0</v>
       </c>
-      <c r="U65" s="113">
+      <c r="U65" s="73">
         <v>3836592098.3406067</v>
       </c>
-      <c r="V65" s="113">
+      <c r="V65" s="73">
         <v>50666377336.049744</v>
       </c>
     </row>
@@ -29663,34 +29663,34 @@
       <c r="K67" s="34">
         <v>20673</v>
       </c>
-      <c r="M67" s="112" t="s">
+      <c r="M67" s="72" t="s">
         <v>1285</v>
       </c>
-      <c r="N67" s="113">
+      <c r="N67" s="73">
         <v>78504091490.033295</v>
       </c>
-      <c r="O67" s="113">
+      <c r="O67" s="73">
         <v>1046982</v>
       </c>
-      <c r="P67" s="113">
+      <c r="P67" s="73">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q67" s="113">
+      <c r="Q67" s="73">
         <v>14621035647.746056</v>
       </c>
-      <c r="R67" s="113">
+      <c r="R67" s="73">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S67" s="113">
+      <c r="S67" s="73">
         <v>207189119008.2312</v>
       </c>
-      <c r="T67" s="113">
+      <c r="T67" s="73">
         <v>0</v>
       </c>
-      <c r="U67" s="113">
+      <c r="U67" s="73">
         <v>47523291302.504768</v>
       </c>
-      <c r="V67" s="113">
+      <c r="V67" s="73">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -29781,34 +29781,34 @@
       <c r="K69" s="34">
         <v>28010</v>
       </c>
-      <c r="M69" s="112" t="s">
+      <c r="M69" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="N69" s="113">
+      <c r="N69" s="73">
         <v>10890398890.142317</v>
       </c>
-      <c r="O69" s="113">
+      <c r="O69" s="73">
         <v>308551</v>
       </c>
-      <c r="P69" s="113">
+      <c r="P69" s="73">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q69" s="113">
+      <c r="Q69" s="73">
         <v>937172261.19894636</v>
       </c>
-      <c r="R69" s="113">
+      <c r="R69" s="73">
         <v>735583151.50594342</v>
       </c>
-      <c r="S69" s="113">
+      <c r="S69" s="73">
         <v>26612571643.637161</v>
       </c>
-      <c r="T69" s="113">
+      <c r="T69" s="73">
         <v>0</v>
       </c>
-      <c r="U69" s="113">
+      <c r="U69" s="73">
         <v>9113191707.005558</v>
       </c>
-      <c r="V69" s="113">
+      <c r="V69" s="73">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -29881,34 +29881,34 @@
       <c r="K71" s="34">
         <v>532970</v>
       </c>
-      <c r="M71" s="112" t="s">
+      <c r="M71" s="72" t="s">
         <v>963</v>
       </c>
-      <c r="N71" s="113">
+      <c r="N71" s="73">
         <v>10890398890.142317</v>
       </c>
-      <c r="O71" s="113">
+      <c r="O71" s="73">
         <v>308551</v>
       </c>
-      <c r="P71" s="113">
+      <c r="P71" s="73">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q71" s="113">
+      <c r="Q71" s="73">
         <v>937172261.19894636</v>
       </c>
-      <c r="R71" s="113">
+      <c r="R71" s="73">
         <v>735583151.50594342</v>
       </c>
-      <c r="S71" s="113">
+      <c r="S71" s="73">
         <v>26612571643.637161</v>
       </c>
-      <c r="T71" s="113">
+      <c r="T71" s="73">
         <v>0</v>
       </c>
-      <c r="U71" s="113">
+      <c r="U71" s="73">
         <v>9113191707.005558</v>
       </c>
-      <c r="V71" s="113">
+      <c r="V71" s="73">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -29981,34 +29981,34 @@
       <c r="K73" s="34">
         <v>46882</v>
       </c>
-      <c r="M73" s="112" t="s">
+      <c r="M73" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="N73" s="113">
+      <c r="N73" s="73">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O73" s="113">
+      <c r="O73" s="73">
         <v>89709</v>
       </c>
-      <c r="P73" s="113">
+      <c r="P73" s="73">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q73" s="113">
+      <c r="Q73" s="73">
         <v>76035594.968170002</v>
       </c>
-      <c r="R73" s="113">
+      <c r="R73" s="73">
         <v>148771510.22782111</v>
       </c>
-      <c r="S73" s="113">
+      <c r="S73" s="73">
         <v>15070800686.395752</v>
       </c>
-      <c r="T73" s="113">
+      <c r="T73" s="73">
         <v>0</v>
       </c>
-      <c r="U73" s="113">
+      <c r="U73" s="73">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V73" s="113">
+      <c r="V73" s="73">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -30081,34 +30081,34 @@
       <c r="K75" s="34">
         <v>108752</v>
       </c>
-      <c r="M75" s="112" t="s">
+      <c r="M75" s="72" t="s">
         <v>983</v>
       </c>
-      <c r="N75" s="113">
+      <c r="N75" s="73">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O75" s="113">
+      <c r="O75" s="73">
         <v>89709</v>
       </c>
-      <c r="P75" s="113">
+      <c r="P75" s="73">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q75" s="113">
+      <c r="Q75" s="73">
         <v>76035594.968170002</v>
       </c>
-      <c r="R75" s="113">
+      <c r="R75" s="73">
         <v>148771510.22782111</v>
       </c>
-      <c r="S75" s="113">
+      <c r="S75" s="73">
         <v>15070800686.395752</v>
       </c>
-      <c r="T75" s="113">
+      <c r="T75" s="73">
         <v>0</v>
       </c>
-      <c r="U75" s="113">
+      <c r="U75" s="73">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V75" s="113">
+      <c r="V75" s="73">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -30181,34 +30181,34 @@
       <c r="K77" s="34">
         <v>583890</v>
       </c>
-      <c r="M77" s="112" t="s">
+      <c r="M77" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="N77" s="113">
+      <c r="N77" s="73">
         <v>8687307834.3865585</v>
       </c>
-      <c r="O77" s="113">
+      <c r="O77" s="73">
         <v>797772</v>
       </c>
-      <c r="P77" s="113">
+      <c r="P77" s="73">
         <v>101211167771.59067</v>
       </c>
-      <c r="Q77" s="113">
+      <c r="Q77" s="73">
         <v>2115253215.007638</v>
       </c>
-      <c r="R77" s="113">
+      <c r="R77" s="73">
         <v>1068105430.5352523</v>
       </c>
-      <c r="S77" s="113">
+      <c r="S77" s="73">
         <v>47284001926.415855</v>
       </c>
-      <c r="T77" s="113">
+      <c r="T77" s="73">
         <v>0</v>
       </c>
-      <c r="U77" s="113">
+      <c r="U77" s="73">
         <v>22567169621.563957</v>
       </c>
-      <c r="V77" s="113">
+      <c r="V77" s="73">
         <v>182933803571.49994</v>
       </c>
     </row>
@@ -30281,34 +30281,34 @@
       <c r="K79" s="34">
         <v>-1604</v>
       </c>
-      <c r="M79" s="112" t="s">
+      <c r="M79" s="72" t="s">
         <v>1005</v>
       </c>
-      <c r="N79" s="113">
+      <c r="N79" s="73">
         <v>3280319673.5430574</v>
       </c>
-      <c r="O79" s="113">
+      <c r="O79" s="73">
         <v>455862</v>
       </c>
-      <c r="P79" s="113">
+      <c r="P79" s="73">
         <v>37776744598.702255</v>
       </c>
-      <c r="Q79" s="113">
+      <c r="Q79" s="73">
         <v>699758616.97939444</v>
       </c>
-      <c r="R79" s="113">
+      <c r="R79" s="73">
         <v>457050052.41330284</v>
       </c>
-      <c r="S79" s="113">
+      <c r="S79" s="73">
         <v>22005087530.867695</v>
       </c>
-      <c r="T79" s="113">
+      <c r="T79" s="73">
         <v>0</v>
       </c>
-      <c r="U79" s="113">
+      <c r="U79" s="73">
         <v>11942037769.473236</v>
       </c>
-      <c r="V79" s="113">
+      <c r="V79" s="73">
         <v>76161454103.978943</v>
       </c>
     </row>
@@ -30381,34 +30381,34 @@
       <c r="K81" s="34">
         <v>15519</v>
       </c>
-      <c r="M81" s="112" t="s">
+      <c r="M81" s="72" t="s">
         <v>1007</v>
       </c>
-      <c r="N81" s="113">
+      <c r="N81" s="73">
         <v>3590390056.4097924</v>
       </c>
-      <c r="O81" s="113">
+      <c r="O81" s="73">
         <v>188037</v>
       </c>
-      <c r="P81" s="113">
+      <c r="P81" s="73">
         <v>27947568861.148758</v>
       </c>
-      <c r="Q81" s="113">
+      <c r="Q81" s="73">
         <v>112590487.42693789</v>
       </c>
-      <c r="R81" s="113">
+      <c r="R81" s="73">
         <v>260863677.44606811</v>
       </c>
-      <c r="S81" s="113">
+      <c r="S81" s="73">
         <v>15847402446.86713</v>
       </c>
-      <c r="T81" s="113">
+      <c r="T81" s="73">
         <v>0</v>
       </c>
-      <c r="U81" s="113">
+      <c r="U81" s="73">
         <v>6303530054.0874472</v>
       </c>
-      <c r="V81" s="113">
+      <c r="V81" s="73">
         <v>54062533620.386139</v>
       </c>
     </row>
@@ -30481,34 +30481,34 @@
       <c r="K83" s="34">
         <v>1840595</v>
       </c>
-      <c r="M83" s="112" t="s">
+      <c r="M83" s="72" t="s">
         <v>1009</v>
       </c>
-      <c r="N83" s="113">
+      <c r="N83" s="73">
         <v>1805391977.5152531</v>
       </c>
-      <c r="O83" s="113">
+      <c r="O83" s="73">
         <v>153456</v>
       </c>
-      <c r="P83" s="113">
+      <c r="P83" s="73">
         <v>35382448787.675598</v>
       </c>
-      <c r="Q83" s="113">
+      <c r="Q83" s="73">
         <v>1302654464.2877204</v>
       </c>
-      <c r="R83" s="113">
+      <c r="R83" s="73">
         <v>350191700.67588127</v>
       </c>
-      <c r="S83" s="113">
+      <c r="S83" s="73">
         <v>9374676939.8772049</v>
       </c>
-      <c r="T83" s="113">
+      <c r="T83" s="73">
         <v>0</v>
       </c>
-      <c r="U83" s="113">
+      <c r="U83" s="73">
         <v>4300743926.0165453</v>
       </c>
-      <c r="V83" s="113">
+      <c r="V83" s="73">
         <v>52516261252.048203</v>
       </c>
     </row>
@@ -30581,34 +30581,34 @@
       <c r="K85" s="34">
         <v>571091</v>
       </c>
-      <c r="M85" s="112" t="s">
+      <c r="M85" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="N85" s="113">
+      <c r="N85" s="73">
         <v>237223363.36203495</v>
       </c>
-      <c r="O85" s="113">
+      <c r="O85" s="73">
         <v>30809</v>
       </c>
-      <c r="P85" s="113">
+      <c r="P85" s="73">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q85" s="113">
+      <c r="Q85" s="73">
         <v>36947654.41061376</v>
       </c>
-      <c r="R85" s="113">
+      <c r="R85" s="73">
         <v>66878258.89820902</v>
       </c>
-      <c r="S85" s="113">
+      <c r="S85" s="73">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T85" s="113">
+      <c r="T85" s="73">
         <v>0</v>
       </c>
-      <c r="U85" s="113">
+      <c r="U85" s="73">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V85" s="113">
+      <c r="V85" s="73">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -30681,34 +30681,34 @@
       <c r="K87" s="34">
         <v>99788</v>
       </c>
-      <c r="M87" s="112" t="s">
+      <c r="M87" s="72" t="s">
         <v>1023</v>
       </c>
-      <c r="N87" s="113">
+      <c r="N87" s="73">
         <v>237223363.36203495</v>
       </c>
-      <c r="O87" s="113">
+      <c r="O87" s="73">
         <v>30809</v>
       </c>
-      <c r="P87" s="113">
+      <c r="P87" s="73">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q87" s="113">
+      <c r="Q87" s="73">
         <v>36947654.41061376</v>
       </c>
-      <c r="R87" s="113">
+      <c r="R87" s="73">
         <v>66878258.89820902</v>
       </c>
-      <c r="S87" s="113">
+      <c r="S87" s="73">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T87" s="113">
+      <c r="T87" s="73">
         <v>0</v>
       </c>
-      <c r="U87" s="113">
+      <c r="U87" s="73">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V87" s="113">
+      <c r="V87" s="73">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -30781,34 +30781,34 @@
       <c r="K89" s="34">
         <v>260034</v>
       </c>
-      <c r="M89" s="112" t="s">
+      <c r="M89" s="72" t="s">
         <v>1293</v>
       </c>
-      <c r="N89" s="113">
+      <c r="N89" s="73">
         <v>26646384802.299095</v>
       </c>
-      <c r="O89" s="113">
+      <c r="O89" s="73">
         <v>1307162</v>
       </c>
-      <c r="P89" s="113">
+      <c r="P89" s="73">
         <v>166544071748.37201</v>
       </c>
-      <c r="Q89" s="113">
+      <c r="Q89" s="73">
         <v>3164766317.3199368</v>
       </c>
-      <c r="R89" s="113">
+      <c r="R89" s="73">
         <v>2081562082.3276882</v>
       </c>
-      <c r="S89" s="113">
+      <c r="S89" s="73">
         <v>90719512145.805908</v>
       </c>
-      <c r="T89" s="113">
+      <c r="T89" s="73">
         <v>0</v>
       </c>
-      <c r="U89" s="113">
+      <c r="U89" s="73">
         <v>37148673843.856224</v>
       </c>
-      <c r="V89" s="113">
+      <c r="V89" s="73">
         <v>326306278101.98083</v>
       </c>
     </row>
@@ -30881,34 +30881,34 @@
       <c r="K91" s="34">
         <v>129933</v>
       </c>
-      <c r="M91" s="114" t="s">
+      <c r="M91" s="74" t="s">
         <v>1250</v>
       </c>
-      <c r="N91" s="115">
+      <c r="N91" s="75">
         <v>361813089644.73499</v>
       </c>
-      <c r="O91" s="115">
+      <c r="O91" s="75">
         <v>8167207</v>
       </c>
-      <c r="P91" s="115">
+      <c r="P91" s="75">
         <v>2569413515071.1187</v>
       </c>
-      <c r="Q91" s="115">
+      <c r="Q91" s="75">
         <v>71879927946.755615</v>
       </c>
-      <c r="R91" s="115">
+      <c r="R91" s="75">
         <v>41061324239.506859</v>
       </c>
-      <c r="S91" s="115">
+      <c r="S91" s="75">
         <v>1009886171812.8113</v>
       </c>
-      <c r="T91" s="115">
+      <c r="T91" s="75">
         <v>32114865.704496637</v>
       </c>
-      <c r="U91" s="115">
+      <c r="U91" s="75">
         <v>290786808092.05988</v>
       </c>
-      <c r="V91" s="115">
+      <c r="V91" s="75">
         <v>4344881118879.6924</v>
       </c>
     </row>
@@ -31400,9 +31400,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{BE74995F-44C2-4E5A-B618-E8AADFD09FB0}"/>
@@ -31421,8 +31421,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31582,8 +31582,7 @@
         <v>69787.837583187051</v>
       </c>
       <c r="E2">
-        <f>'Filtered OECD Data'!D3*1000</f>
-        <v>253600</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'Filtered OECD Data'!E3*1000</f>
@@ -31618,8 +31617,7 @@
         <v>498774.18900851451</v>
       </c>
       <c r="N2">
-        <f>'Filtered OECD Data'!L3*1000</f>
-        <v>1592600</v>
+        <v>0</v>
       </c>
       <c r="O2" s="68">
         <f>'Filtered OECD Data'!M4*1000*('EU Data for ISIC Splits'!J6)</f>
@@ -31638,32 +31636,28 @@
         <v>144439.99760799721</v>
       </c>
       <c r="S2">
-        <f>'Filtered OECD Data'!O3*1000</f>
-        <v>3523000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>'Filtered OECD Data'!P3*1000</f>
-        <v>1066000</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>'Filtered OECD Data'!Q3*1000</f>
-        <v>1462700</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>'Filtered OECD Data'!R3*1000</f>
-        <v>2886700</v>
+        <f>'Filtered OECD Data'!R3*1000+'Filtered OECD Data'!O3*1000+'Filtered OECD Data'!P3*1000+'Filtered OECD Data'!Q3*1000</f>
+        <v>8938400</v>
       </c>
       <c r="W2">
-        <f>'Filtered OECD Data'!S3*1000</f>
-        <v>2468500</v>
+        <f>'Filtered OECD Data'!S3*1000+'Filtered OECD Data'!T3*1000</f>
+        <v>3135700</v>
       </c>
       <c r="X2">
-        <f>'Filtered OECD Data'!T3*1000</f>
-        <v>667200</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>'Filtered OECD Data'!U3*1000</f>
-        <v>3345200</v>
+        <f>'Filtered OECD Data'!U3*1000+'Filtered OECD Data'!W3*1000+'Filtered OECD Data'!L3*1000+'Filtered OECD Data'!D3*1000</f>
+        <v>18687200</v>
       </c>
       <c r="Z2" s="68">
         <f>'Filtered OECD Data'!V4*1000*('EU Data for ISIC Splits'!P6/SUM('EU Data for ISIC Splits'!P6:R6))</f>
@@ -31678,8 +31672,7 @@
         <v>534227.68397866248</v>
       </c>
       <c r="AC2">
-        <f>'Filtered OECD Data'!W3*1000</f>
-        <v>13495800</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f>'Filtered OECD Data'!X3*1000</f>
@@ -31745,6 +31738,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -31967,27 +31980,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF06D90-FDB1-4FEC-9418-20CF1D0BDBD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE84B3B-6140-4048-B392-92041E65CFB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B32794-9E36-4E10-A06D-3BC52CC6287D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32004,23 +32016,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE84B3B-6140-4048-B392-92041E65CFB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF06D90-FDB1-4FEC-9418-20CF1D0BDBD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\EPS Models\EU EPS\InputData\io-model\BEbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA7026-E5C7-40E8-ADD9-F36722A68A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E65423-A854-41D3-B566-F8AD3D4687B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1065" windowWidth="27135" windowHeight="6975" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33315" yWindow="645" windowWidth="30705" windowHeight="14700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4679,6 +4679,126 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4733,126 +4853,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5392,548 +5392,548 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="111"/>
-      <c r="AT3" s="111"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="111"/>
-      <c r="AW3" s="111"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="111"/>
-      <c r="BD3" s="111"/>
-      <c r="BE3" s="112"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="75"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="103"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="103"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="78"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="103"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="77"/>
+      <c r="AX6" s="77"/>
+      <c r="AY6" s="77"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="77"/>
+      <c r="BB6" s="77"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="77"/>
+      <c r="BE6" s="78"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="95" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="94"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="90"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="95" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="95" t="s">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="95" t="s">
+      <c r="AF8" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="AG8" s="95" t="s">
+      <c r="AG8" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="93" t="s">
+      <c r="AH8" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="95" t="s">
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="AT8" s="93" t="s">
+      <c r="AT8" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="95" t="s">
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="BB8" s="95" t="s">
+      <c r="BB8" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="BC8" s="95" t="s">
+      <c r="BC8" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="BD8" s="95" t="s">
+      <c r="BD8" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="BE8" s="95" t="s">
+      <c r="BE8" s="85" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="95" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="95" t="s">
+      <c r="I9" s="86"/>
+      <c r="J9" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="95" t="s">
+      <c r="L9" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="95" t="s">
+      <c r="N9" s="90"/>
+      <c r="O9" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="95" t="s">
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="93" t="s">
+      <c r="U9" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="V9" s="94"/>
-      <c r="W9" s="95" t="s">
+      <c r="V9" s="90"/>
+      <c r="W9" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="X9" s="93" t="s">
+      <c r="X9" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="95" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="95" t="s">
+      <c r="AA9" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" s="93" t="s">
+      <c r="AB9" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="95" t="s">
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="95" t="s">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="AI9" s="93" t="s">
+      <c r="AI9" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="95" t="s">
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="AM9" s="93" t="s">
+      <c r="AM9" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="95" t="s">
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="AQ9" s="95" t="s">
+      <c r="AQ9" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="AR9" s="95" t="s">
+      <c r="AR9" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="95" t="s">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="AU9" s="93" t="s">
+      <c r="AU9" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="94"/>
-      <c r="AX9" s="95" t="s">
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="AY9" s="93" t="s">
+      <c r="AY9" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="97"/>
-      <c r="BB9" s="97"/>
-      <c r="BC9" s="97"/>
-      <c r="BD9" s="97"/>
-      <c r="BE9" s="97"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
     </row>
     <row r="10" spans="1:57" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="96"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="8" t="s">
         <v>130</v>
       </c>
@@ -5946,33 +5946,33 @@
       <c r="S10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="96"/>
+      <c r="T10" s="87"/>
       <c r="U10" s="8" t="s">
         <v>126</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="96"/>
+      <c r="W10" s="87"/>
       <c r="X10" s="8" t="s">
         <v>124</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
       <c r="AB10" s="8" t="s">
         <v>122</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
       <c r="AI10" s="8" t="s">
         <v>120</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="AK10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="96"/>
+      <c r="AL10" s="87"/>
       <c r="AM10" s="8" t="s">
         <v>117</v>
       </c>
@@ -5992,11 +5992,11 @@
       <c r="AO10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
       <c r="AU10" s="8" t="s">
         <v>114</v>
       </c>
@@ -6006,18 +6006,18 @@
       <c r="AW10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="96"/>
+      <c r="AX10" s="87"/>
       <c r="AY10" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AZ10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BA10" s="96"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="96"/>
-      <c r="BD10" s="96"/>
-      <c r="BE10" s="96"/>
+      <c r="BA10" s="87"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
     </row>
     <row r="11" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -16925,12 +16925,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BD8:BD10"/>
+    <mergeCell ref="BE8:BE10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:BE6"/>
     <mergeCell ref="A7:B10"/>
@@ -16947,39 +16974,12 @@
     <mergeCell ref="AH8:AR8"/>
     <mergeCell ref="AS8:AS10"/>
     <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BC8:BC10"/>
-    <mergeCell ref="BD8:BD10"/>
-    <mergeCell ref="BE8:BE10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A74" r:id="rId1" display="https://stats-3.oecd.org/index.aspx?DatasetCode=TIM_2019_MAIN" xr:uid="{8F586648-4D2F-44D4-887F-770D86CB4218}"/>
@@ -17018,824 +17018,824 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="116"/>
-      <c r="BF2" s="116"/>
-      <c r="BG2" s="116"/>
-      <c r="BH2" s="116"/>
-      <c r="BI2" s="116"/>
-      <c r="BJ2" s="116"/>
-      <c r="BK2" s="116"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="116"/>
-      <c r="BN2" s="116"/>
-      <c r="BO2" s="116"/>
-      <c r="BP2" s="116"/>
-      <c r="BQ2" s="116"/>
-      <c r="BR2" s="116"/>
-      <c r="BS2" s="116"/>
-      <c r="BT2" s="117"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="109"/>
+      <c r="AT2" s="109"/>
+      <c r="AU2" s="109"/>
+      <c r="AV2" s="109"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="109"/>
+      <c r="BC2" s="109"/>
+      <c r="BD2" s="109"/>
+      <c r="BE2" s="109"/>
+      <c r="BF2" s="109"/>
+      <c r="BG2" s="109"/>
+      <c r="BH2" s="109"/>
+      <c r="BI2" s="109"/>
+      <c r="BJ2" s="109"/>
+      <c r="BK2" s="109"/>
+      <c r="BL2" s="109"/>
+      <c r="BM2" s="109"/>
+      <c r="BN2" s="109"/>
+      <c r="BO2" s="109"/>
+      <c r="BP2" s="109"/>
+      <c r="BQ2" s="109"/>
+      <c r="BR2" s="109"/>
+      <c r="BS2" s="109"/>
+      <c r="BT2" s="110"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="118" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="120"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="101"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="99" t="s">
         <v>1199</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="120"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
+      <c r="AW4" s="100"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="100"/>
+      <c r="BB4" s="100"/>
+      <c r="BC4" s="100"/>
+      <c r="BD4" s="100"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="100"/>
+      <c r="BJ4" s="100"/>
+      <c r="BK4" s="100"/>
+      <c r="BL4" s="100"/>
+      <c r="BM4" s="100"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="100"/>
+      <c r="BQ4" s="100"/>
+      <c r="BR4" s="100"/>
+      <c r="BS4" s="100"/>
+      <c r="BT4" s="101"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="118" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="119"/>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="119"/>
-      <c r="BT5" s="120"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="100"/>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="100"/>
+      <c r="AW5" s="100"/>
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="100"/>
+      <c r="AZ5" s="100"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="100"/>
+      <c r="BG5" s="100"/>
+      <c r="BH5" s="100"/>
+      <c r="BI5" s="100"/>
+      <c r="BJ5" s="100"/>
+      <c r="BK5" s="100"/>
+      <c r="BL5" s="100"/>
+      <c r="BM5" s="100"/>
+      <c r="BN5" s="100"/>
+      <c r="BO5" s="100"/>
+      <c r="BP5" s="100"/>
+      <c r="BQ5" s="100"/>
+      <c r="BR5" s="100"/>
+      <c r="BS5" s="100"/>
+      <c r="BT5" s="101"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="127" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="91" t="s">
         <v>1198</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="94" t="s">
         <v>1198</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="131"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="131"/>
-      <c r="AO6" s="131"/>
-      <c r="AP6" s="131"/>
-      <c r="AQ6" s="131"/>
-      <c r="AR6" s="131"/>
-      <c r="AS6" s="131"/>
-      <c r="AT6" s="131"/>
-      <c r="AU6" s="131"/>
-      <c r="AV6" s="131"/>
-      <c r="AW6" s="131"/>
-      <c r="AX6" s="131"/>
-      <c r="AY6" s="131"/>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="131"/>
-      <c r="BC6" s="131"/>
-      <c r="BD6" s="131"/>
-      <c r="BE6" s="131"/>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="131"/>
-      <c r="BI6" s="131"/>
-      <c r="BJ6" s="131"/>
-      <c r="BK6" s="131"/>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="131"/>
-      <c r="BO6" s="131"/>
-      <c r="BP6" s="131"/>
-      <c r="BQ6" s="131"/>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96"/>
+      <c r="AZ6" s="96"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="96"/>
+      <c r="BJ6" s="96"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="96"/>
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="96"/>
+      <c r="BR6" s="96"/>
+      <c r="BS6" s="96"/>
+      <c r="BT6" s="95"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="91" t="s">
         <v>1201</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="94" t="s">
         <v>1201</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="127" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="127" t="s">
+      <c r="I7" s="96"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="130" t="s">
+      <c r="L7" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="132"/>
-      <c r="AI7" s="127" t="s">
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="95"/>
+      <c r="AI7" s="91" t="s">
         <v>1202</v>
       </c>
-      <c r="AJ7" s="130" t="s">
+      <c r="AJ7" s="94" t="s">
         <v>1202</v>
       </c>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="127" t="s">
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="AM7" s="127" t="s">
+      <c r="AM7" s="91" t="s">
         <v>1203</v>
       </c>
-      <c r="AN7" s="130" t="s">
+      <c r="AN7" s="94" t="s">
         <v>1203</v>
       </c>
-      <c r="AO7" s="131"/>
-      <c r="AP7" s="131"/>
-      <c r="AQ7" s="131"/>
-      <c r="AR7" s="131"/>
-      <c r="AS7" s="131"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="131"/>
-      <c r="AV7" s="131"/>
-      <c r="AW7" s="131"/>
-      <c r="AX7" s="131"/>
-      <c r="AY7" s="131"/>
-      <c r="AZ7" s="131"/>
-      <c r="BA7" s="131"/>
-      <c r="BB7" s="131"/>
-      <c r="BC7" s="131"/>
-      <c r="BD7" s="131"/>
-      <c r="BE7" s="132"/>
-      <c r="BF7" s="127" t="s">
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="91" t="s">
         <v>1204</v>
       </c>
-      <c r="BG7" s="130" t="s">
+      <c r="BG7" s="94" t="s">
         <v>1204</v>
       </c>
-      <c r="BH7" s="131"/>
-      <c r="BI7" s="131"/>
-      <c r="BJ7" s="131"/>
-      <c r="BK7" s="131"/>
-      <c r="BL7" s="131"/>
-      <c r="BM7" s="131"/>
-      <c r="BN7" s="131"/>
-      <c r="BO7" s="132"/>
-      <c r="BP7" s="127" t="s">
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="96"/>
+      <c r="BJ7" s="96"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="96"/>
+      <c r="BM7" s="96"/>
+      <c r="BN7" s="96"/>
+      <c r="BO7" s="95"/>
+      <c r="BP7" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="BQ7" s="127" t="s">
+      <c r="BQ7" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="BR7" s="127" t="s">
+      <c r="BR7" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="BS7" s="127" t="s">
+      <c r="BS7" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="BT7" s="127" t="s">
+      <c r="BT7" s="91" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="127" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="91" t="s">
         <v>1205</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="91" t="s">
         <v>1206</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="127" t="s">
+      <c r="G8" s="93"/>
+      <c r="H8" s="91" t="s">
         <v>1207</v>
       </c>
-      <c r="I8" s="127" t="s">
+      <c r="I8" s="91" t="s">
         <v>1208</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="127" t="s">
+      <c r="K8" s="93"/>
+      <c r="L8" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="127" t="s">
+      <c r="M8" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="127" t="s">
+      <c r="N8" s="91" t="s">
         <v>1209</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="O8" s="94" t="s">
         <v>1209</v>
       </c>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="127" t="s">
+      <c r="P8" s="95"/>
+      <c r="Q8" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="R8" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="127" t="s">
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="Y8" s="130" t="s">
+      <c r="Y8" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="127" t="s">
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="91" t="s">
         <v>1210</v>
       </c>
-      <c r="AB8" s="130" t="s">
+      <c r="AB8" s="94" t="s">
         <v>1210</v>
       </c>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="127" t="s">
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="91" t="s">
         <v>1211</v>
       </c>
-      <c r="AE8" s="127" t="s">
+      <c r="AE8" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="AF8" s="130" t="s">
+      <c r="AF8" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="127" t="s">
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="91" t="s">
         <v>1212</v>
       </c>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="127" t="s">
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="91" t="s">
         <v>1213</v>
       </c>
-      <c r="AK8" s="127" t="s">
+      <c r="AK8" s="91" t="s">
         <v>1214</v>
       </c>
-      <c r="AL8" s="128"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="127" t="s">
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="AO8" s="130" t="s">
+      <c r="AO8" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="131"/>
-      <c r="AR8" s="131"/>
-      <c r="AS8" s="131"/>
-      <c r="AT8" s="131"/>
-      <c r="AU8" s="131"/>
-      <c r="AV8" s="132"/>
-      <c r="AW8" s="127" t="s">
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="AX8" s="130" t="s">
+      <c r="AX8" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="AY8" s="131"/>
-      <c r="AZ8" s="132"/>
-      <c r="BA8" s="127" t="s">
+      <c r="AY8" s="96"/>
+      <c r="AZ8" s="95"/>
+      <c r="BA8" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="BB8" s="127" t="s">
+      <c r="BB8" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="BC8" s="127" t="s">
+      <c r="BC8" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="BD8" s="130" t="s">
+      <c r="BD8" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="BE8" s="132"/>
-      <c r="BF8" s="128"/>
-      <c r="BG8" s="127" t="s">
+      <c r="BE8" s="95"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="BH8" s="130" t="s">
+      <c r="BH8" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="BI8" s="131"/>
-      <c r="BJ8" s="132"/>
-      <c r="BK8" s="127" t="s">
+      <c r="BI8" s="96"/>
+      <c r="BJ8" s="95"/>
+      <c r="BK8" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="BL8" s="130" t="s">
+      <c r="BL8" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="BM8" s="131"/>
-      <c r="BN8" s="131"/>
-      <c r="BO8" s="132"/>
-      <c r="BP8" s="128"/>
-      <c r="BQ8" s="128"/>
-      <c r="BR8" s="128"/>
-      <c r="BS8" s="128"/>
-      <c r="BT8" s="128"/>
+      <c r="BM8" s="96"/>
+      <c r="BN8" s="96"/>
+      <c r="BO8" s="95"/>
+      <c r="BP8" s="93"/>
+      <c r="BQ8" s="93"/>
+      <c r="BR8" s="93"/>
+      <c r="BS8" s="93"/>
+      <c r="BT8" s="93"/>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="127" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="127" t="s">
+      <c r="Q9" s="93"/>
+      <c r="R9" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="127" t="s">
+      <c r="S9" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="130" t="s">
+      <c r="T9" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="U9" s="132"/>
-      <c r="V9" s="127" t="s">
+      <c r="U9" s="95"/>
+      <c r="V9" s="91" t="s">
         <v>1215</v>
       </c>
-      <c r="W9" s="127" t="s">
+      <c r="W9" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="127" t="s">
+      <c r="X9" s="93"/>
+      <c r="Y9" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="Z9" s="127" t="s">
+      <c r="Z9" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="127" t="s">
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AC9" s="127" t="s">
+      <c r="AC9" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="127" t="s">
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="AG9" s="127" t="s">
+      <c r="AG9" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="127" t="s">
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="AP9" s="127" t="s">
+      <c r="AP9" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AQ9" s="130" t="s">
+      <c r="AQ9" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="AR9" s="131"/>
-      <c r="AS9" s="131"/>
-      <c r="AT9" s="131"/>
-      <c r="AU9" s="132"/>
-      <c r="AV9" s="127" t="s">
+      <c r="AR9" s="96"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="96"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="91" t="s">
         <v>1216</v>
       </c>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="127" t="s">
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="AY9" s="127" t="s">
+      <c r="AY9" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AZ9" s="127" t="s">
+      <c r="AZ9" s="91" t="s">
         <v>1217</v>
       </c>
-      <c r="BA9" s="128"/>
-      <c r="BB9" s="128"/>
-      <c r="BC9" s="128"/>
-      <c r="BD9" s="127" t="s">
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="91" t="s">
         <v>1218</v>
       </c>
-      <c r="BE9" s="127" t="s">
+      <c r="BE9" s="91" t="s">
         <v>1219</v>
       </c>
-      <c r="BF9" s="128"/>
-      <c r="BG9" s="128"/>
-      <c r="BH9" s="127" t="s">
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="91" t="s">
         <v>1220</v>
       </c>
-      <c r="BI9" s="127" t="s">
+      <c r="BI9" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="BJ9" s="127" t="s">
+      <c r="BJ9" s="91" t="s">
         <v>1221</v>
       </c>
-      <c r="BK9" s="128"/>
-      <c r="BL9" s="127" t="s">
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="91" t="s">
         <v>1222</v>
       </c>
-      <c r="BM9" s="130" t="s">
+      <c r="BM9" s="94" t="s">
         <v>1222</v>
       </c>
-      <c r="BN9" s="132"/>
-      <c r="BO9" s="127" t="s">
+      <c r="BN9" s="95"/>
+      <c r="BO9" s="91" t="s">
         <v>1223</v>
       </c>
-      <c r="BP9" s="128"/>
-      <c r="BQ9" s="128"/>
-      <c r="BR9" s="128"/>
-      <c r="BS9" s="128"/>
-      <c r="BT9" s="128"/>
+      <c r="BP9" s="93"/>
+      <c r="BQ9" s="93"/>
+      <c r="BR9" s="93"/>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="93"/>
     </row>
     <row r="10" spans="1:72" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="129"/>
-      <c r="S10" s="129"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
       <c r="T10" s="51" t="s">
         <v>1224</v>
       </c>
       <c r="U10" s="51" t="s">
         <v>1225</v>
       </c>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="129"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
       <c r="AQ10" s="51" t="s">
         <v>1226</v>
       </c>
@@ -17851,35 +17851,35 @@
       <c r="AU10" s="51" t="s">
         <v>1230</v>
       </c>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="129"/>
-      <c r="AX10" s="129"/>
-      <c r="AY10" s="129"/>
-      <c r="AZ10" s="129"/>
-      <c r="BA10" s="129"/>
-      <c r="BB10" s="129"/>
-      <c r="BC10" s="129"/>
-      <c r="BD10" s="129"/>
-      <c r="BE10" s="129"/>
-      <c r="BF10" s="129"/>
-      <c r="BG10" s="129"/>
-      <c r="BH10" s="129"/>
-      <c r="BI10" s="129"/>
-      <c r="BJ10" s="129"/>
-      <c r="BK10" s="129"/>
-      <c r="BL10" s="129"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
+      <c r="BJ10" s="92"/>
+      <c r="BK10" s="92"/>
+      <c r="BL10" s="92"/>
       <c r="BM10" s="51" t="s">
         <v>1231</v>
       </c>
       <c r="BN10" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="BO10" s="129"/>
-      <c r="BP10" s="129"/>
-      <c r="BQ10" s="129"/>
-      <c r="BR10" s="129"/>
-      <c r="BS10" s="129"/>
-      <c r="BT10" s="129"/>
+      <c r="BO10" s="92"/>
+      <c r="BP10" s="92"/>
+      <c r="BQ10" s="92"/>
+      <c r="BR10" s="92"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="92"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
@@ -18685,6 +18685,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:BT2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BT3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BT5"/>
+    <mergeCell ref="A6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:BT6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="AN7:BE7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="L7:AH7"/>
+    <mergeCell ref="AI7:AI10"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AL10"/>
+    <mergeCell ref="AM7:AM10"/>
+    <mergeCell ref="BR7:BR10"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="BS7:BS10"/>
+    <mergeCell ref="BK8:BK10"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="BL9:BL10"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="BT7:BT10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="BF7:BF10"/>
+    <mergeCell ref="BG7:BO7"/>
+    <mergeCell ref="BP7:BP10"/>
+    <mergeCell ref="BQ7:BQ10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="BO9:BO10"/>
     <mergeCell ref="AX9:AX10"/>
@@ -18701,80 +18775,6 @@
     <mergeCell ref="BH8:BJ8"/>
     <mergeCell ref="BI9:BI10"/>
     <mergeCell ref="BJ9:BJ10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="BT7:BT10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="BF7:BF10"/>
-    <mergeCell ref="BG7:BO7"/>
-    <mergeCell ref="BP7:BP10"/>
-    <mergeCell ref="BQ7:BQ10"/>
-    <mergeCell ref="BS7:BS10"/>
-    <mergeCell ref="BK8:BK10"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="BL9:BL10"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="AI7:AI10"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AL10"/>
-    <mergeCell ref="AM7:AM10"/>
-    <mergeCell ref="BR7:BR10"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="AN8:AN10"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BT5"/>
-    <mergeCell ref="A6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:BT6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="AN7:BE7"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="L7:AH7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:BT2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BT3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BT4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2023&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B25102CB-E2DF-4CA3-BD99-7C30E1B71191}"/>
@@ -26384,7 +26384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5772A-2990-47B3-99CF-FDF7B4616747}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -26653,20 +26653,20 @@
         <v>336259.10000000009</v>
       </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="90">
+      <c r="J7" s="130">
         <f>J6</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="130">
         <f>K6</f>
         <v>0.76802125678366684</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="90">
+      <c r="L7" s="131"/>
+      <c r="M7" s="130">
         <f>M6</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="130">
         <f>N6</f>
         <v>0.36567088002024611</v>
       </c>
@@ -26740,11 +26740,11 @@
         <f>H34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="132">
         <f>G7/SUM(G7:H7)</f>
         <v>0.64272627378847369</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="132">
         <f>H7/SUM(G7:H7)</f>
         <v>0.35727372621152625</v>
       </c>
@@ -26752,11 +26752,11 @@
         <f>H58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="132">
         <f>J7</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="132">
         <f>K7</f>
         <v>0.76802125678366684</v>
       </c>
@@ -26764,11 +26764,11 @@
         <f>H41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="132">
         <f>M7</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="132">
         <f>N7</f>
         <v>0.36567088002024611</v>
       </c>
@@ -26776,15 +26776,15 @@
         <f>H42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="92">
+      <c r="P9" s="132">
         <f>P7/SUM(P7:R7)</f>
         <v>0.60187231506233263</v>
       </c>
-      <c r="Q9" s="92">
+      <c r="Q9" s="132">
         <f>Q7/SUM(P7:R7)</f>
         <v>0.17161085476193078</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="132">
         <f>R7/SUM(P7:R7)</f>
         <v>0.22651683017573657</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>31636000000</v>
       </c>
       <c r="P10" s="47">
-        <f t="shared" ref="P10:R12" si="5">$S10*(P$7/$S$8)</f>
+        <f t="shared" ref="P9:R12" si="5">$S10*(P$7/$S$8)</f>
         <v>66746355144.368149</v>
       </c>
       <c r="Q10" s="47">
@@ -27114,40 +27114,40 @@
       <c r="K26" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="111" t="s">
         <v>1241</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="111" t="s">
         <v>1242</v>
       </c>
-      <c r="O26" s="71" t="s">
+      <c r="O26" s="111" t="s">
         <v>1243</v>
       </c>
-      <c r="P26" s="71" t="s">
+      <c r="P26" s="111" t="s">
         <v>1244</v>
       </c>
-      <c r="Q26" s="71" t="s">
+      <c r="Q26" s="111" t="s">
         <v>1245</v>
       </c>
-      <c r="R26" s="71" t="s">
+      <c r="R26" s="111" t="s">
         <v>1246</v>
       </c>
-      <c r="S26" s="71" t="s">
+      <c r="S26" s="111" t="s">
         <v>1247</v>
       </c>
-      <c r="T26" s="71" t="s">
+      <c r="T26" s="111" t="s">
         <v>1248</v>
       </c>
-      <c r="U26" s="71" t="s">
+      <c r="U26" s="111" t="s">
         <v>1249</v>
       </c>
-      <c r="V26" s="71" t="s">
+      <c r="V26" s="111" t="s">
         <v>1250</v>
       </c>
-      <c r="Y26" s="76" t="s">
+      <c r="Y26" s="116" t="s">
         <v>1296</v>
       </c>
-      <c r="Z26" s="77">
+      <c r="Z26" s="117">
         <v>2015</v>
       </c>
     </row>
@@ -27182,38 +27182,38 @@
       <c r="K27" s="34">
         <v>7310806</v>
       </c>
-      <c r="M27" s="72" t="s">
+      <c r="M27" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="N27" s="73">
+      <c r="N27" s="113">
         <v>1306702060.5499315</v>
       </c>
-      <c r="O27" s="73">
+      <c r="O27" s="113">
         <v>148063</v>
       </c>
-      <c r="P27" s="73">
+      <c r="P27" s="113">
         <v>11519410352.717516</v>
       </c>
-      <c r="Q27" s="73">
+      <c r="Q27" s="113">
         <v>22717814.536255758</v>
       </c>
-      <c r="R27" s="73">
+      <c r="R27" s="113">
         <v>431308093.40285647</v>
       </c>
-      <c r="S27" s="73">
+      <c r="S27" s="113">
         <v>7601712988.706522</v>
       </c>
-      <c r="T27" s="73">
+      <c r="T27" s="113">
         <v>0</v>
       </c>
-      <c r="U27" s="73">
+      <c r="U27" s="113">
         <v>3491148228.5713687</v>
       </c>
-      <c r="V27" s="73">
+      <c r="V27" s="113">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="80"/>
+      <c r="Y27" s="119"/>
+      <c r="Z27" s="120"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -27276,10 +27276,10 @@
       <c r="V28">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y28" s="81" t="s">
+      <c r="Y28" s="121" t="s">
         <v>1297</v>
       </c>
-      <c r="Z28" s="82">
+      <c r="Z28" s="122">
         <v>64615.98526307274</v>
       </c>
     </row>
@@ -27314,40 +27314,40 @@
       <c r="K29" s="34">
         <v>129354</v>
       </c>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="112" t="s">
         <v>1252</v>
       </c>
-      <c r="N29" s="73">
+      <c r="N29" s="113">
         <v>1297267192.8821502</v>
       </c>
-      <c r="O29" s="73">
+      <c r="O29" s="113">
         <v>133723</v>
       </c>
-      <c r="P29" s="73">
+      <c r="P29" s="113">
         <v>11158155930.177727</v>
       </c>
-      <c r="Q29" s="73">
+      <c r="Q29" s="113">
         <v>15478071.442284144</v>
       </c>
-      <c r="R29" s="73">
+      <c r="R29" s="113">
         <v>3400589.4355021538</v>
       </c>
-      <c r="S29" s="73">
+      <c r="S29" s="113">
         <v>7218782754.3940811</v>
       </c>
-      <c r="T29" s="73">
+      <c r="T29" s="113">
         <v>0</v>
       </c>
-      <c r="U29" s="73">
+      <c r="U29" s="113">
         <v>3349165753.2852859</v>
       </c>
-      <c r="V29" s="73">
+      <c r="V29" s="113">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y29" s="83" t="s">
+      <c r="Y29" s="123" t="s">
         <v>1298</v>
       </c>
-      <c r="Z29" s="84">
+      <c r="Z29" s="124">
         <v>26221.561705366206</v>
       </c>
     </row>
@@ -27412,10 +27412,10 @@
       <c r="V30">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y30" s="85" t="s">
+      <c r="Y30" s="125" t="s">
         <v>1299</v>
       </c>
-      <c r="Z30" s="86">
+      <c r="Z30" s="126">
         <v>23404.888504693812</v>
       </c>
     </row>
@@ -27450,40 +27450,40 @@
       <c r="K31" s="34">
         <v>9964</v>
       </c>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="112" t="s">
         <v>1254</v>
       </c>
-      <c r="N31" s="73">
+      <c r="N31" s="113">
         <v>9545802.0354693029</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="113">
         <v>14340</v>
       </c>
-      <c r="P31" s="73">
+      <c r="P31" s="113">
         <v>361254908.36018932</v>
       </c>
-      <c r="Q31" s="73">
+      <c r="Q31" s="113">
         <v>7239743.0939716157</v>
       </c>
-      <c r="R31" s="73">
+      <c r="R31" s="113">
         <v>427340739.06143731</v>
       </c>
-      <c r="S31" s="73">
+      <c r="S31" s="113">
         <v>382819215.01538932</v>
       </c>
-      <c r="T31" s="73">
+      <c r="T31" s="113">
         <v>0</v>
       </c>
-      <c r="U31" s="73">
+      <c r="U31" s="113">
         <v>141982453.01575536</v>
       </c>
-      <c r="V31" s="73">
+      <c r="V31" s="113">
         <v>1330197200.5822122</v>
       </c>
-      <c r="Y31" s="87" t="s">
+      <c r="Y31" s="127" t="s">
         <v>1300</v>
       </c>
-      <c r="Z31" s="88">
+      <c r="Z31" s="128">
         <v>14989.535053012718</v>
       </c>
     </row>
@@ -27580,34 +27580,34 @@
       <c r="K33" s="34">
         <v>86727</v>
       </c>
-      <c r="M33" s="72" t="s">
+      <c r="M33" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="N33" s="73">
+      <c r="N33" s="113">
         <v>8266490842.2795811</v>
       </c>
-      <c r="O33" s="73">
+      <c r="O33" s="113">
         <v>53591</v>
       </c>
-      <c r="P33" s="73">
+      <c r="P33" s="113">
         <v>60687659392.693939</v>
       </c>
-      <c r="Q33" s="73">
+      <c r="Q33" s="113">
         <v>4712323815.234766</v>
       </c>
-      <c r="R33" s="73">
+      <c r="R33" s="113">
         <v>72867445.497491658</v>
       </c>
-      <c r="S33" s="73">
+      <c r="S33" s="113">
         <v>14437910094.097101</v>
       </c>
-      <c r="T33" s="73">
+      <c r="T33" s="113">
         <v>0</v>
       </c>
-      <c r="U33" s="73">
+      <c r="U33" s="113">
         <v>2019879400.793005</v>
       </c>
-      <c r="V33" s="73">
+      <c r="V33" s="113">
         <v>90197184581.595901</v>
       </c>
     </row>
@@ -27672,10 +27672,10 @@
       <c r="V34">
         <v>90197184581.595901</v>
       </c>
-      <c r="Y34" s="81" t="s">
+      <c r="Y34" s="121" t="s">
         <v>1297</v>
       </c>
-      <c r="Z34" s="77">
+      <c r="Z34" s="117">
         <v>2015</v>
       </c>
     </row>
@@ -27710,38 +27710,38 @@
       <c r="K35" s="34">
         <v>16137</v>
       </c>
-      <c r="M35" s="72" t="s">
+      <c r="M35" s="112" t="s">
         <v>1257</v>
       </c>
-      <c r="N35" s="73">
+      <c r="N35" s="113">
         <v>7130567441.7257786</v>
       </c>
-      <c r="O35" s="73">
+      <c r="O35" s="113">
         <v>19838</v>
       </c>
-      <c r="P35" s="73">
+      <c r="P35" s="113">
         <v>21590616914.442547</v>
       </c>
-      <c r="Q35" s="73">
+      <c r="Q35" s="113">
         <v>3627610582.7069497</v>
       </c>
-      <c r="R35" s="73">
+      <c r="R35" s="113">
         <v>72867445.497491658</v>
       </c>
-      <c r="S35" s="73">
+      <c r="S35" s="113">
         <v>11830994109.66503</v>
       </c>
-      <c r="T35" s="73">
+      <c r="T35" s="113">
         <v>0</v>
       </c>
-      <c r="U35" s="73">
+      <c r="U35" s="113">
         <v>666753944.41147113</v>
       </c>
-      <c r="V35" s="73">
+      <c r="V35" s="113">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="78"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="118"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27804,10 +27804,10 @@
       <c r="V36">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y36" s="76" t="s">
+      <c r="Y36" s="116" t="s">
         <v>1301</v>
       </c>
-      <c r="Z36" s="82">
+      <c r="Z36" s="122">
         <v>42130.370628106539</v>
       </c>
     </row>
@@ -27842,40 +27842,40 @@
       <c r="K37" s="34">
         <v>227490</v>
       </c>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="112" t="s">
         <v>1259</v>
       </c>
-      <c r="N37" s="73">
+      <c r="N37" s="113">
         <v>1261631266.7170815</v>
       </c>
-      <c r="O37" s="73">
+      <c r="O37" s="113">
         <v>33753</v>
       </c>
-      <c r="P37" s="73">
+      <c r="P37" s="113">
         <v>39097039905.733597</v>
       </c>
-      <c r="Q37" s="73">
+      <c r="Q37" s="113">
         <v>1084713232.5278163</v>
       </c>
-      <c r="R37" s="73">
+      <c r="R37" s="113">
         <v>0</v>
       </c>
-      <c r="S37" s="73">
+      <c r="S37" s="113">
         <v>2606915848.9715786</v>
       </c>
-      <c r="T37" s="73">
+      <c r="T37" s="113">
         <v>0</v>
       </c>
-      <c r="U37" s="73">
+      <c r="U37" s="113">
         <v>1353236460.6230078</v>
       </c>
-      <c r="V37" s="73">
+      <c r="V37" s="113">
         <v>45403570467.573082</v>
       </c>
-      <c r="Y37" s="76" t="s">
+      <c r="Y37" s="116" t="s">
         <v>1302</v>
       </c>
-      <c r="Z37" s="82">
+      <c r="Z37" s="122">
         <v>24286.8397775126</v>
       </c>
     </row>
@@ -27972,34 +27972,34 @@
       <c r="K39" s="34">
         <v>490800</v>
       </c>
-      <c r="M39" s="72" t="s">
+      <c r="M39" s="112" t="s">
         <v>1261</v>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="113">
         <v>469546162.21027291</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="113">
         <v>14003</v>
       </c>
-      <c r="P39" s="73">
+      <c r="P39" s="113">
         <v>1521476863.0696039</v>
       </c>
-      <c r="Q39" s="73">
+      <c r="Q39" s="113">
         <v>89872672.890682131</v>
       </c>
-      <c r="R39" s="73">
+      <c r="R39" s="113">
         <v>701088188.61936069</v>
       </c>
-      <c r="S39" s="73">
+      <c r="S39" s="113">
         <v>765961358.06948328</v>
       </c>
-      <c r="T39" s="73">
+      <c r="T39" s="113">
         <v>0</v>
       </c>
-      <c r="U39" s="73">
+      <c r="U39" s="113">
         <v>290797503.93466085</v>
       </c>
-      <c r="V39" s="73">
+      <c r="V39" s="113">
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
@@ -28102,34 +28102,34 @@
       <c r="K41" s="34">
         <v>26135</v>
       </c>
-      <c r="M41" s="72" t="s">
+      <c r="M41" s="112" t="s">
         <v>1263</v>
       </c>
-      <c r="N41" s="73">
+      <c r="N41" s="113">
         <v>952797572.37284994</v>
       </c>
-      <c r="O41" s="73">
+      <c r="O41" s="113">
         <v>5507</v>
       </c>
-      <c r="P41" s="73">
+      <c r="P41" s="113">
         <v>2429423437.3547029</v>
       </c>
-      <c r="Q41" s="73">
+      <c r="Q41" s="113">
         <v>998585.25434091256</v>
       </c>
-      <c r="R41" s="73">
+      <c r="R41" s="113">
         <v>0</v>
       </c>
-      <c r="S41" s="73">
+      <c r="S41" s="113">
         <v>949563448.90718198</v>
       </c>
-      <c r="T41" s="73">
+      <c r="T41" s="113">
         <v>0</v>
       </c>
-      <c r="U41" s="73">
+      <c r="U41" s="113">
         <v>316095095.78219879</v>
       </c>
-      <c r="V41" s="73">
+      <c r="V41" s="113">
         <v>4648883646.6712751</v>
       </c>
     </row>
@@ -28226,34 +28226,34 @@
       <c r="K43" s="34">
         <v>46896</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="112" t="s">
         <v>1265</v>
       </c>
-      <c r="N43" s="73">
+      <c r="N43" s="113">
         <v>228005085.27106535</v>
       </c>
-      <c r="O43" s="73">
+      <c r="O43" s="113">
         <v>12194</v>
       </c>
-      <c r="P43" s="73">
+      <c r="P43" s="113">
         <v>873853938.769485</v>
       </c>
-      <c r="Q43" s="73">
+      <c r="Q43" s="113">
         <v>89123733.949926436</v>
       </c>
-      <c r="R43" s="73">
+      <c r="R43" s="113">
         <v>701088188.61936069</v>
       </c>
-      <c r="S43" s="73">
+      <c r="S43" s="113">
         <v>558149484.19674885</v>
       </c>
-      <c r="T43" s="73">
+      <c r="T43" s="113">
         <v>0</v>
       </c>
-      <c r="U43" s="73">
+      <c r="U43" s="113">
         <v>189166072.8742767</v>
       </c>
-      <c r="V43" s="73">
+      <c r="V43" s="113">
         <v>2639398697.6808629</v>
       </c>
     </row>
@@ -28350,34 +28350,34 @@
       <c r="K45" s="34">
         <v>121224</v>
       </c>
-      <c r="M45" s="72" t="s">
+      <c r="M45" s="112" t="s">
         <v>1267</v>
       </c>
-      <c r="N45" s="73">
+      <c r="N45" s="113">
         <v>2222486657.5109367</v>
       </c>
-      <c r="O45" s="73">
+      <c r="O45" s="113">
         <v>151154</v>
       </c>
-      <c r="P45" s="73">
+      <c r="P45" s="113">
         <v>27400666701.752556</v>
       </c>
-      <c r="Q45" s="73">
+      <c r="Q45" s="113">
         <v>622617906.08155894</v>
       </c>
-      <c r="R45" s="73">
+      <c r="R45" s="113">
         <v>838710893.05547976</v>
       </c>
-      <c r="S45" s="73">
+      <c r="S45" s="113">
         <v>10031770194.062885</v>
       </c>
-      <c r="T45" s="73">
+      <c r="T45" s="113">
         <v>0</v>
       </c>
-      <c r="U45" s="73">
+      <c r="U45" s="113">
         <v>4236554756.1895924</v>
       </c>
-      <c r="V45" s="73">
+      <c r="V45" s="113">
         <v>45352958262.653008</v>
       </c>
     </row>
@@ -28474,34 +28474,34 @@
       <c r="K47" s="34">
         <v>72921</v>
       </c>
-      <c r="M47" s="72" t="s">
+      <c r="M47" s="112" t="s">
         <v>1269</v>
       </c>
-      <c r="N47" s="73">
+      <c r="N47" s="113">
         <v>1899948233.971308</v>
       </c>
-      <c r="O47" s="73">
+      <c r="O47" s="113">
         <v>131410</v>
       </c>
-      <c r="P47" s="73">
+      <c r="P47" s="113">
         <v>23497086460.520012</v>
       </c>
-      <c r="Q47" s="73">
+      <c r="Q47" s="113">
         <v>521760795.39312679</v>
       </c>
-      <c r="R47" s="73">
+      <c r="R47" s="113">
         <v>483888988.16405404</v>
       </c>
-      <c r="S47" s="73">
+      <c r="S47" s="113">
         <v>8520722346.2728558</v>
       </c>
-      <c r="T47" s="73">
+      <c r="T47" s="113">
         <v>0</v>
       </c>
-      <c r="U47" s="73">
+      <c r="U47" s="113">
         <v>3650632204.7298689</v>
       </c>
-      <c r="V47" s="73">
+      <c r="V47" s="113">
         <v>38574170439.051224</v>
       </c>
     </row>
@@ -28598,34 +28598,34 @@
       <c r="K49" s="34">
         <v>8477</v>
       </c>
-      <c r="M49" s="72" t="s">
+      <c r="M49" s="112" t="s">
         <v>1271</v>
       </c>
-      <c r="N49" s="73">
+      <c r="N49" s="113">
         <v>473257466.17673761</v>
       </c>
-      <c r="O49" s="73">
+      <c r="O49" s="113">
         <v>26802</v>
       </c>
-      <c r="P49" s="73">
+      <c r="P49" s="113">
         <v>5663489273.1745396</v>
       </c>
-      <c r="Q49" s="73">
+      <c r="Q49" s="113">
         <v>100857110.68843216</v>
       </c>
-      <c r="R49" s="73">
+      <c r="R49" s="113">
         <v>354821904.89142573</v>
       </c>
-      <c r="S49" s="73">
+      <c r="S49" s="113">
         <v>1991280609.2443142</v>
       </c>
-      <c r="T49" s="73">
+      <c r="T49" s="113">
         <v>0</v>
       </c>
-      <c r="U49" s="73">
+      <c r="U49" s="113">
         <v>824041350.96202862</v>
       </c>
-      <c r="V49" s="73">
+      <c r="V49" s="113">
         <v>9407774517.1374779</v>
       </c>
     </row>
@@ -28719,34 +28719,34 @@
       <c r="K51" s="34">
         <v>546841</v>
       </c>
-      <c r="M51" s="72" t="s">
+      <c r="M51" s="112" t="s">
         <v>1273</v>
       </c>
-      <c r="N51" s="73">
+      <c r="N51" s="113">
         <v>1678287009.8913183</v>
       </c>
-      <c r="O51" s="73">
+      <c r="O51" s="113">
         <v>44734</v>
       </c>
-      <c r="P51" s="73">
+      <c r="P51" s="113">
         <v>11502895221.353985</v>
       </c>
-      <c r="Q51" s="73">
+      <c r="Q51" s="113">
         <v>717733151.55753088</v>
       </c>
-      <c r="R51" s="73">
+      <c r="R51" s="113">
         <v>15302652.459759692</v>
       </c>
-      <c r="S51" s="73">
+      <c r="S51" s="113">
         <v>4083801384.9274535</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="113">
         <v>0</v>
       </c>
-      <c r="U51" s="73">
+      <c r="U51" s="113">
         <v>1670738148.1770575</v>
       </c>
-      <c r="V51" s="73">
+      <c r="V51" s="113">
         <v>19668802302.367107</v>
       </c>
     </row>
@@ -28837,34 +28837,34 @@
       <c r="K53" s="34">
         <v>5348</v>
       </c>
-      <c r="M53" s="72" t="s">
+      <c r="M53" s="112" t="s">
         <v>1275</v>
       </c>
-      <c r="N53" s="73">
+      <c r="N53" s="113">
         <v>2106970962.552319</v>
       </c>
-      <c r="O53" s="73">
+      <c r="O53" s="113">
         <v>30047</v>
       </c>
-      <c r="P53" s="73">
+      <c r="P53" s="113">
         <v>5682036551.2180834</v>
       </c>
-      <c r="Q53" s="73">
+      <c r="Q53" s="113">
         <v>707497652.70053649</v>
       </c>
-      <c r="R53" s="73">
+      <c r="R53" s="113">
         <v>566764.90591702564</v>
       </c>
-      <c r="S53" s="73">
+      <c r="S53" s="113">
         <v>1755302406.6754115</v>
       </c>
-      <c r="T53" s="73">
+      <c r="T53" s="113">
         <v>0</v>
       </c>
-      <c r="U53" s="73">
+      <c r="U53" s="113">
         <v>935825806.01349056</v>
       </c>
-      <c r="V53" s="73">
+      <c r="V53" s="113">
         <v>11188230191.06576</v>
       </c>
     </row>
@@ -28955,34 +28955,34 @@
       <c r="K55" s="34">
         <v>27760</v>
       </c>
-      <c r="M55" s="72" t="s">
+      <c r="M55" s="112" t="s">
         <v>1277</v>
       </c>
-      <c r="N55" s="73">
+      <c r="N55" s="113">
         <v>56705031.782545343</v>
       </c>
-      <c r="O55" s="73">
+      <c r="O55" s="113">
         <v>15048</v>
       </c>
-      <c r="P55" s="73">
+      <c r="P55" s="113">
         <v>642601985.01381433</v>
       </c>
-      <c r="Q55" s="73">
+      <c r="Q55" s="113">
         <v>10485145.170579581</v>
       </c>
-      <c r="R55" s="73">
+      <c r="R55" s="113">
         <v>14735887.553842666</v>
       </c>
-      <c r="S55" s="73">
+      <c r="S55" s="113">
         <v>466369137.95732343</v>
       </c>
-      <c r="T55" s="73">
+      <c r="T55" s="113">
         <v>0</v>
       </c>
-      <c r="U55" s="73">
+      <c r="U55" s="113">
         <v>228778011.09896329</v>
       </c>
-      <c r="V55" s="73">
+      <c r="V55" s="113">
         <v>1419690246.5770686</v>
       </c>
     </row>
@@ -29073,34 +29073,34 @@
       <c r="K57" s="34">
         <v>121879</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="112" t="s">
         <v>1279</v>
       </c>
-      <c r="N57" s="73">
+      <c r="N57" s="113">
         <v>17429692130.770443</v>
       </c>
-      <c r="O57" s="73">
+      <c r="O57" s="113">
         <v>466386</v>
       </c>
-      <c r="P57" s="73">
+      <c r="P57" s="113">
         <v>128368469303.36765</v>
       </c>
-      <c r="Q57" s="73">
+      <c r="Q57" s="113">
         <v>6190456868.1116009</v>
       </c>
-      <c r="R57" s="73">
+      <c r="R57" s="113">
         <v>2461590164.6931825</v>
       </c>
-      <c r="S57" s="73">
+      <c r="S57" s="113">
         <v>46857003390.229973</v>
       </c>
-      <c r="T57" s="73">
+      <c r="T57" s="113">
         <v>32114865.704496637</v>
       </c>
-      <c r="U57" s="73">
+      <c r="U57" s="113">
         <v>14460515178.179235</v>
       </c>
-      <c r="V57" s="73">
+      <c r="V57" s="113">
         <v>215800308287.05658</v>
       </c>
     </row>
@@ -29191,34 +29191,34 @@
       <c r="K59" s="34">
         <v>32875</v>
       </c>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="N59" s="73">
+      <c r="N59" s="113">
         <v>78504091490.033295</v>
       </c>
-      <c r="O59" s="73">
+      <c r="O59" s="113">
         <v>1046982</v>
       </c>
-      <c r="P59" s="73">
+      <c r="P59" s="113">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q59" s="73">
+      <c r="Q59" s="113">
         <v>14621035647.746056</v>
       </c>
-      <c r="R59" s="73">
+      <c r="R59" s="113">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S59" s="73">
+      <c r="S59" s="113">
         <v>207189119008.2312</v>
       </c>
-      <c r="T59" s="73">
+      <c r="T59" s="113">
         <v>0</v>
       </c>
-      <c r="U59" s="73">
+      <c r="U59" s="113">
         <v>47523291302.504768</v>
       </c>
-      <c r="V59" s="73">
+      <c r="V59" s="113">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -29309,34 +29309,34 @@
       <c r="K61" s="34">
         <v>229589</v>
       </c>
-      <c r="M61" s="72" t="s">
+      <c r="M61" s="112" t="s">
         <v>945</v>
       </c>
-      <c r="N61" s="73">
+      <c r="N61" s="113">
         <v>67476297698.493103</v>
       </c>
-      <c r="O61" s="73">
+      <c r="O61" s="113">
         <v>798544</v>
       </c>
-      <c r="P61" s="73">
+      <c r="P61" s="113">
         <v>441742765741.36365</v>
       </c>
-      <c r="Q61" s="73">
+      <c r="Q61" s="113">
         <v>10383039828.323223</v>
       </c>
-      <c r="R61" s="73">
+      <c r="R61" s="113">
         <v>7651054396.3270893</v>
       </c>
-      <c r="S61" s="73">
+      <c r="S61" s="113">
         <v>171867442674.04648</v>
       </c>
-      <c r="T61" s="73">
+      <c r="T61" s="113">
         <v>0</v>
       </c>
-      <c r="U61" s="73">
+      <c r="U61" s="113">
         <v>38643049029.573586</v>
       </c>
-      <c r="V61" s="73">
+      <c r="V61" s="113">
         <v>737764447912.1272</v>
       </c>
     </row>
@@ -29427,34 +29427,34 @@
       <c r="K63" s="34">
         <v>47193</v>
       </c>
-      <c r="M63" s="72" t="s">
+      <c r="M63" s="112" t="s">
         <v>947</v>
       </c>
-      <c r="N63" s="73">
+      <c r="N63" s="113">
         <v>5059416710.4255381</v>
       </c>
-      <c r="O63" s="73">
+      <c r="O63" s="113">
         <v>84930</v>
       </c>
-      <c r="P63" s="73">
+      <c r="P63" s="113">
         <v>97953802980.534073</v>
       </c>
-      <c r="Q63" s="73">
+      <c r="Q63" s="113">
         <v>3660813542.4137855</v>
       </c>
-      <c r="R63" s="73">
+      <c r="R63" s="113">
         <v>255915836.97198397</v>
       </c>
-      <c r="S63" s="73">
+      <c r="S63" s="113">
         <v>20101780091.966759</v>
       </c>
-      <c r="T63" s="73">
+      <c r="T63" s="113">
         <v>0</v>
       </c>
-      <c r="U63" s="73">
+      <c r="U63" s="113">
         <v>4245598894.5075283</v>
       </c>
-      <c r="V63" s="73">
+      <c r="V63" s="113">
         <v>131277412986.81966</v>
       </c>
     </row>
@@ -29545,34 +29545,34 @@
       <c r="K65" s="34">
         <v>7603</v>
       </c>
-      <c r="M65" s="72" t="s">
+      <c r="M65" s="112" t="s">
         <v>949</v>
       </c>
-      <c r="N65" s="73">
+      <c r="N65" s="113">
         <v>5648457179.3464718</v>
       </c>
-      <c r="O65" s="73">
+      <c r="O65" s="113">
         <v>128749</v>
       </c>
-      <c r="P65" s="73">
+      <c r="P65" s="113">
         <v>27999579018.642555</v>
       </c>
-      <c r="Q65" s="73">
+      <c r="Q65" s="113">
         <v>577182277.00904739</v>
       </c>
-      <c r="R65" s="73">
+      <c r="R65" s="113">
         <v>1267410240.9736962</v>
       </c>
-      <c r="S65" s="73">
+      <c r="S65" s="113">
         <v>11337027772.73737</v>
       </c>
-      <c r="T65" s="73">
+      <c r="T65" s="113">
         <v>0</v>
       </c>
-      <c r="U65" s="73">
+      <c r="U65" s="113">
         <v>3836592098.3406067</v>
       </c>
-      <c r="V65" s="73">
+      <c r="V65" s="113">
         <v>50666377336.049744</v>
       </c>
     </row>
@@ -29663,34 +29663,34 @@
       <c r="K67" s="34">
         <v>20673</v>
       </c>
-      <c r="M67" s="72" t="s">
+      <c r="M67" s="112" t="s">
         <v>1285</v>
       </c>
-      <c r="N67" s="73">
+      <c r="N67" s="113">
         <v>78504091490.033295</v>
       </c>
-      <c r="O67" s="73">
+      <c r="O67" s="113">
         <v>1046982</v>
       </c>
-      <c r="P67" s="73">
+      <c r="P67" s="113">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q67" s="73">
+      <c r="Q67" s="113">
         <v>14621035647.746056</v>
       </c>
-      <c r="R67" s="73">
+      <c r="R67" s="113">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S67" s="73">
+      <c r="S67" s="113">
         <v>207189119008.2312</v>
       </c>
-      <c r="T67" s="73">
+      <c r="T67" s="113">
         <v>0</v>
       </c>
-      <c r="U67" s="73">
+      <c r="U67" s="113">
         <v>47523291302.504768</v>
       </c>
-      <c r="V67" s="73">
+      <c r="V67" s="113">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -29781,34 +29781,34 @@
       <c r="K69" s="34">
         <v>28010</v>
       </c>
-      <c r="M69" s="72" t="s">
+      <c r="M69" s="112" t="s">
         <v>316</v>
       </c>
-      <c r="N69" s="73">
+      <c r="N69" s="113">
         <v>10890398890.142317</v>
       </c>
-      <c r="O69" s="73">
+      <c r="O69" s="113">
         <v>308551</v>
       </c>
-      <c r="P69" s="73">
+      <c r="P69" s="113">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q69" s="73">
+      <c r="Q69" s="113">
         <v>937172261.19894636</v>
       </c>
-      <c r="R69" s="73">
+      <c r="R69" s="113">
         <v>735583151.50594342</v>
       </c>
-      <c r="S69" s="73">
+      <c r="S69" s="113">
         <v>26612571643.637161</v>
       </c>
-      <c r="T69" s="73">
+      <c r="T69" s="113">
         <v>0</v>
       </c>
-      <c r="U69" s="73">
+      <c r="U69" s="113">
         <v>9113191707.005558</v>
       </c>
-      <c r="V69" s="73">
+      <c r="V69" s="113">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -29881,34 +29881,34 @@
       <c r="K71" s="34">
         <v>532970</v>
       </c>
-      <c r="M71" s="72" t="s">
+      <c r="M71" s="112" t="s">
         <v>963</v>
       </c>
-      <c r="N71" s="73">
+      <c r="N71" s="113">
         <v>10890398890.142317</v>
       </c>
-      <c r="O71" s="73">
+      <c r="O71" s="113">
         <v>308551</v>
       </c>
-      <c r="P71" s="73">
+      <c r="P71" s="113">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q71" s="73">
+      <c r="Q71" s="113">
         <v>937172261.19894636</v>
       </c>
-      <c r="R71" s="73">
+      <c r="R71" s="113">
         <v>735583151.50594342</v>
       </c>
-      <c r="S71" s="73">
+      <c r="S71" s="113">
         <v>26612571643.637161</v>
       </c>
-      <c r="T71" s="73">
+      <c r="T71" s="113">
         <v>0</v>
       </c>
-      <c r="U71" s="73">
+      <c r="U71" s="113">
         <v>9113191707.005558</v>
       </c>
-      <c r="V71" s="73">
+      <c r="V71" s="113">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -29981,34 +29981,34 @@
       <c r="K73" s="34">
         <v>46882</v>
       </c>
-      <c r="M73" s="72" t="s">
+      <c r="M73" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="N73" s="73">
+      <c r="N73" s="113">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O73" s="73">
+      <c r="O73" s="113">
         <v>89709</v>
       </c>
-      <c r="P73" s="73">
+      <c r="P73" s="113">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q73" s="73">
+      <c r="Q73" s="113">
         <v>76035594.968170002</v>
       </c>
-      <c r="R73" s="73">
+      <c r="R73" s="113">
         <v>148771510.22782111</v>
       </c>
-      <c r="S73" s="73">
+      <c r="S73" s="113">
         <v>15070800686.395752</v>
       </c>
-      <c r="T73" s="73">
+      <c r="T73" s="113">
         <v>0</v>
       </c>
-      <c r="U73" s="73">
+      <c r="U73" s="113">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V73" s="73">
+      <c r="V73" s="113">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -30081,34 +30081,34 @@
       <c r="K75" s="34">
         <v>108752</v>
       </c>
-      <c r="M75" s="72" t="s">
+      <c r="M75" s="112" t="s">
         <v>983</v>
       </c>
-      <c r="N75" s="73">
+      <c r="N75" s="113">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O75" s="73">
+      <c r="O75" s="113">
         <v>89709</v>
       </c>
-      <c r="P75" s="73">
+      <c r="P75" s="113">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q75" s="73">
+      <c r="Q75" s="113">
         <v>76035594.968170002</v>
       </c>
-      <c r="R75" s="73">
+      <c r="R75" s="113">
         <v>148771510.22782111</v>
       </c>
-      <c r="S75" s="73">
+      <c r="S75" s="113">
         <v>15070800686.395752</v>
       </c>
-      <c r="T75" s="73">
+      <c r="T75" s="113">
         <v>0</v>
       </c>
-      <c r="U75" s="73">
+      <c r="U75" s="113">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V75" s="73">
+      <c r="V75" s="113">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -30181,34 +30181,34 @@
       <c r="K77" s="34">
         <v>583890</v>
       </c>
-      <c r="M77" s="72" t="s">
+      <c r="M77" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="N77" s="73">
+      <c r="N77" s="113">
         <v>8687307834.3865585</v>
       </c>
-      <c r="O77" s="73">
+      <c r="O77" s="113">
         <v>797772</v>
       </c>
-      <c r="P77" s="73">
+      <c r="P77" s="113">
         <v>101211167771.59067</v>
       </c>
-      <c r="Q77" s="73">
+      <c r="Q77" s="113">
         <v>2115253215.007638</v>
       </c>
-      <c r="R77" s="73">
+      <c r="R77" s="113">
         <v>1068105430.5352523</v>
       </c>
-      <c r="S77" s="73">
+      <c r="S77" s="113">
         <v>47284001926.415855</v>
       </c>
-      <c r="T77" s="73">
+      <c r="T77" s="113">
         <v>0</v>
       </c>
-      <c r="U77" s="73">
+      <c r="U77" s="113">
         <v>22567169621.563957</v>
       </c>
-      <c r="V77" s="73">
+      <c r="V77" s="113">
         <v>182933803571.49994</v>
       </c>
     </row>
@@ -30281,34 +30281,34 @@
       <c r="K79" s="34">
         <v>-1604</v>
       </c>
-      <c r="M79" s="72" t="s">
+      <c r="M79" s="112" t="s">
         <v>1005</v>
       </c>
-      <c r="N79" s="73">
+      <c r="N79" s="113">
         <v>3280319673.5430574</v>
       </c>
-      <c r="O79" s="73">
+      <c r="O79" s="113">
         <v>455862</v>
       </c>
-      <c r="P79" s="73">
+      <c r="P79" s="113">
         <v>37776744598.702255</v>
       </c>
-      <c r="Q79" s="73">
+      <c r="Q79" s="113">
         <v>699758616.97939444</v>
       </c>
-      <c r="R79" s="73">
+      <c r="R79" s="113">
         <v>457050052.41330284</v>
       </c>
-      <c r="S79" s="73">
+      <c r="S79" s="113">
         <v>22005087530.867695</v>
       </c>
-      <c r="T79" s="73">
+      <c r="T79" s="113">
         <v>0</v>
       </c>
-      <c r="U79" s="73">
+      <c r="U79" s="113">
         <v>11942037769.473236</v>
       </c>
-      <c r="V79" s="73">
+      <c r="V79" s="113">
         <v>76161454103.978943</v>
       </c>
     </row>
@@ -30381,34 +30381,34 @@
       <c r="K81" s="34">
         <v>15519</v>
       </c>
-      <c r="M81" s="72" t="s">
+      <c r="M81" s="112" t="s">
         <v>1007</v>
       </c>
-      <c r="N81" s="73">
+      <c r="N81" s="113">
         <v>3590390056.4097924</v>
       </c>
-      <c r="O81" s="73">
+      <c r="O81" s="113">
         <v>188037</v>
       </c>
-      <c r="P81" s="73">
+      <c r="P81" s="113">
         <v>27947568861.148758</v>
       </c>
-      <c r="Q81" s="73">
+      <c r="Q81" s="113">
         <v>112590487.42693789</v>
       </c>
-      <c r="R81" s="73">
+      <c r="R81" s="113">
         <v>260863677.44606811</v>
       </c>
-      <c r="S81" s="73">
+      <c r="S81" s="113">
         <v>15847402446.86713</v>
       </c>
-      <c r="T81" s="73">
+      <c r="T81" s="113">
         <v>0</v>
       </c>
-      <c r="U81" s="73">
+      <c r="U81" s="113">
         <v>6303530054.0874472</v>
       </c>
-      <c r="V81" s="73">
+      <c r="V81" s="113">
         <v>54062533620.386139</v>
       </c>
     </row>
@@ -30481,34 +30481,34 @@
       <c r="K83" s="34">
         <v>1840595</v>
       </c>
-      <c r="M83" s="72" t="s">
+      <c r="M83" s="112" t="s">
         <v>1009</v>
       </c>
-      <c r="N83" s="73">
+      <c r="N83" s="113">
         <v>1805391977.5152531</v>
       </c>
-      <c r="O83" s="73">
+      <c r="O83" s="113">
         <v>153456</v>
       </c>
-      <c r="P83" s="73">
+      <c r="P83" s="113">
         <v>35382448787.675598</v>
       </c>
-      <c r="Q83" s="73">
+      <c r="Q83" s="113">
         <v>1302654464.2877204</v>
       </c>
-      <c r="R83" s="73">
+      <c r="R83" s="113">
         <v>350191700.67588127</v>
       </c>
-      <c r="S83" s="73">
+      <c r="S83" s="113">
         <v>9374676939.8772049</v>
       </c>
-      <c r="T83" s="73">
+      <c r="T83" s="113">
         <v>0</v>
       </c>
-      <c r="U83" s="73">
+      <c r="U83" s="113">
         <v>4300743926.0165453</v>
       </c>
-      <c r="V83" s="73">
+      <c r="V83" s="113">
         <v>52516261252.048203</v>
       </c>
     </row>
@@ -30581,34 +30581,34 @@
       <c r="K85" s="34">
         <v>571091</v>
       </c>
-      <c r="M85" s="72" t="s">
+      <c r="M85" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="N85" s="73">
+      <c r="N85" s="113">
         <v>237223363.36203495</v>
       </c>
-      <c r="O85" s="73">
+      <c r="O85" s="113">
         <v>30809</v>
       </c>
-      <c r="P85" s="73">
+      <c r="P85" s="113">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q85" s="73">
+      <c r="Q85" s="113">
         <v>36947654.41061376</v>
       </c>
-      <c r="R85" s="73">
+      <c r="R85" s="113">
         <v>66878258.89820902</v>
       </c>
-      <c r="S85" s="73">
+      <c r="S85" s="113">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T85" s="73">
+      <c r="T85" s="113">
         <v>0</v>
       </c>
-      <c r="U85" s="73">
+      <c r="U85" s="113">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V85" s="73">
+      <c r="V85" s="113">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -30681,34 +30681,34 @@
       <c r="K87" s="34">
         <v>99788</v>
       </c>
-      <c r="M87" s="72" t="s">
+      <c r="M87" s="112" t="s">
         <v>1023</v>
       </c>
-      <c r="N87" s="73">
+      <c r="N87" s="113">
         <v>237223363.36203495</v>
       </c>
-      <c r="O87" s="73">
+      <c r="O87" s="113">
         <v>30809</v>
       </c>
-      <c r="P87" s="73">
+      <c r="P87" s="113">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q87" s="73">
+      <c r="Q87" s="113">
         <v>36947654.41061376</v>
       </c>
-      <c r="R87" s="73">
+      <c r="R87" s="113">
         <v>66878258.89820902</v>
       </c>
-      <c r="S87" s="73">
+      <c r="S87" s="113">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T87" s="73">
+      <c r="T87" s="113">
         <v>0</v>
       </c>
-      <c r="U87" s="73">
+      <c r="U87" s="113">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V87" s="73">
+      <c r="V87" s="113">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -30781,34 +30781,34 @@
       <c r="K89" s="34">
         <v>260034</v>
       </c>
-      <c r="M89" s="72" t="s">
+      <c r="M89" s="112" t="s">
         <v>1293</v>
       </c>
-      <c r="N89" s="73">
+      <c r="N89" s="113">
         <v>26646384802.299095</v>
       </c>
-      <c r="O89" s="73">
+      <c r="O89" s="113">
         <v>1307162</v>
       </c>
-      <c r="P89" s="73">
+      <c r="P89" s="113">
         <v>166544071748.37201</v>
       </c>
-      <c r="Q89" s="73">
+      <c r="Q89" s="113">
         <v>3164766317.3199368</v>
       </c>
-      <c r="R89" s="73">
+      <c r="R89" s="113">
         <v>2081562082.3276882</v>
       </c>
-      <c r="S89" s="73">
+      <c r="S89" s="113">
         <v>90719512145.805908</v>
       </c>
-      <c r="T89" s="73">
+      <c r="T89" s="113">
         <v>0</v>
       </c>
-      <c r="U89" s="73">
+      <c r="U89" s="113">
         <v>37148673843.856224</v>
       </c>
-      <c r="V89" s="73">
+      <c r="V89" s="113">
         <v>326306278101.98083</v>
       </c>
     </row>
@@ -30881,34 +30881,34 @@
       <c r="K91" s="34">
         <v>129933</v>
       </c>
-      <c r="M91" s="74" t="s">
+      <c r="M91" s="114" t="s">
         <v>1250</v>
       </c>
-      <c r="N91" s="75">
+      <c r="N91" s="115">
         <v>361813089644.73499</v>
       </c>
-      <c r="O91" s="75">
+      <c r="O91" s="115">
         <v>8167207</v>
       </c>
-      <c r="P91" s="75">
+      <c r="P91" s="115">
         <v>2569413515071.1187</v>
       </c>
-      <c r="Q91" s="75">
+      <c r="Q91" s="115">
         <v>71879927946.755615</v>
       </c>
-      <c r="R91" s="75">
+      <c r="R91" s="115">
         <v>41061324239.506859</v>
       </c>
-      <c r="S91" s="75">
+      <c r="S91" s="115">
         <v>1009886171812.8113</v>
       </c>
-      <c r="T91" s="75">
+      <c r="T91" s="115">
         <v>32114865.704496637</v>
       </c>
-      <c r="U91" s="75">
+      <c r="U91" s="115">
         <v>290786808092.05988</v>
       </c>
-      <c r="V91" s="75">
+      <c r="V91" s="115">
         <v>4344881118879.6924</v>
       </c>
     </row>
@@ -31400,9 +31400,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="78" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:11" s="118" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{BE74995F-44C2-4E5A-B618-E8AADFD09FB0}"/>
@@ -31421,8 +31421,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31582,7 +31582,8 @@
         <v>69787.837583187051</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!D3*1000</f>
+        <v>253600</v>
       </c>
       <c r="F2">
         <f>'Filtered OECD Data'!E3*1000</f>
@@ -31617,7 +31618,8 @@
         <v>498774.18900851451</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!L3*1000</f>
+        <v>1592600</v>
       </c>
       <c r="O2" s="68">
         <f>'Filtered OECD Data'!M4*1000*('EU Data for ISIC Splits'!J6)</f>
@@ -31636,28 +31638,32 @@
         <v>144439.99760799721</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!O3*1000</f>
+        <v>3523000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!P3*1000</f>
+        <v>1066000</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!Q3*1000</f>
+        <v>1462700</v>
       </c>
       <c r="V2">
-        <f>'Filtered OECD Data'!R3*1000+'Filtered OECD Data'!O3*1000+'Filtered OECD Data'!P3*1000+'Filtered OECD Data'!Q3*1000</f>
-        <v>8938400</v>
+        <f>'Filtered OECD Data'!R3*1000</f>
+        <v>2886700</v>
       </c>
       <c r="W2">
-        <f>'Filtered OECD Data'!S3*1000+'Filtered OECD Data'!T3*1000</f>
-        <v>3135700</v>
+        <f>'Filtered OECD Data'!S3*1000</f>
+        <v>2468500</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!T3*1000</f>
+        <v>667200</v>
       </c>
       <c r="Y2">
-        <f>'Filtered OECD Data'!U3*1000+'Filtered OECD Data'!W3*1000+'Filtered OECD Data'!L3*1000+'Filtered OECD Data'!D3*1000</f>
-        <v>18687200</v>
+        <f>'Filtered OECD Data'!U3*1000</f>
+        <v>3345200</v>
       </c>
       <c r="Z2" s="68">
         <f>'Filtered OECD Data'!V4*1000*('EU Data for ISIC Splits'!P6/SUM('EU Data for ISIC Splits'!P6:R6))</f>
@@ -31672,7 +31678,8 @@
         <v>534227.68397866248</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f>'Filtered OECD Data'!W3*1000</f>
+        <v>13495800</v>
       </c>
       <c r="AD2">
         <f>'Filtered OECD Data'!X3*1000</f>
@@ -31738,26 +31745,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -31980,10 +31967,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF06D90-FDB1-4FEC-9418-20CF1D0BDBD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B32794-9E36-4E10-A06D-3BC52CC6287D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32000,20 +32018,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B32794-9E36-4E10-A06D-3BC52CC6287D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF06D90-FDB1-4FEC-9418-20CF1D0BDBD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>